--- a/CNH on.xlsx
+++ b/CNH on.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="25200" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="25200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="CNH on" sheetId="2" r:id="rId1"/>
     <sheet name="1M" sheetId="3" r:id="rId2"/>
     <sheet name="2M" sheetId="4" r:id="rId3"/>
     <sheet name="3M" sheetId="5" r:id="rId4"/>
+    <sheet name="6M" sheetId="7" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="CUR" localSheetId="1">'1M'!$A$25:$B$35</definedName>
     <definedName name="CUR" localSheetId="2">'2M'!$A$25:$B$35</definedName>
     <definedName name="CUR" localSheetId="3">'3M'!$A$25:$B$35</definedName>
+    <definedName name="CUR" localSheetId="4">'6M'!$A$25:$B$35</definedName>
     <definedName name="CUR" localSheetId="0">'CNH on'!$A$25:$B$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="95">
   <si>
     <t>SPOT</t>
   </si>
@@ -224,14 +226,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>速算利差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNH ON平均在這以上就賠錢</t>
+  </si>
+  <si>
+    <t>CNH ON平均在這以下就賠錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNHSW=ICHK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下就賠錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上就賠錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNH2W=ICHK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">SW    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">2M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1Y    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2W    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1M    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">2M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">6M    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -244,30 +341,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>速算利差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNH ON平均在這以上就賠錢</t>
-  </si>
-  <si>
-    <t>CNH ON平均在這以下就賠錢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNHSW=ICHK</t>
+    <t xml:space="preserve">SW    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -279,71 +353,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">3M    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">6M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1Y    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9M    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">2W    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">9M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1Y    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SW    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2W    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">6M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9M    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下就賠錢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上就賠錢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -351,17 +397,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="#,##0.000000"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="178" formatCode="#,##0.0000"/>
     <numFmt numFmtId="179" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.000_ "/>
-    <numFmt numFmtId="188" formatCode="0.00000_ "/>
-    <numFmt numFmtId="190" formatCode="#,##0_ "/>
-    <numFmt numFmtId="203" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.00000_ "/>
+    <numFmt numFmtId="184" formatCode="#,##0_ "/>
+    <numFmt numFmtId="185" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="186" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -482,7 +529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,7 +580,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -551,28 +598,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,60 +654,67 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
         <stp/>
         <stp xml:space="preserve">
 HICNHONDF=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="O4" s="4"/>
+        <tr r="N4" s="5"/>
+        <tr r="N4" s="3"/>
+        <tr r="O4" s="2"/>
+        <tr r="O4" s="5"/>
         <tr r="N4" s="2"/>
-        <tr r="O4" s="2"/>
-        <tr r="N4" s="3"/>
+        <tr r="N4" s="4"/>
         <tr r="O4" s="3"/>
-        <tr r="N4" s="4"/>
-        <tr r="O4" s="4"/>
-        <tr r="O4" s="5"/>
-        <tr r="N4" s="5"/>
+        <tr r="N4" s="7"/>
+        <tr r="O4" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>7.2608000000000006</v>
+        <v>6.9374000000000002</v>
         <stp/>
         <stp>_x0004_CNH=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="D1" s="2"/>
         <tr r="D1" s="3"/>
         <tr r="D1" s="4"/>
         <tr r="D1" s="5"/>
+        <tr r="D1" s="7"/>
       </tp>
       <tp t="s">
-        <v xml:space="preserve"> O/N  3.040     2.990     3.040     2.990                       *               </v>
+        <v xml:space="preserve"> O/N  4.890     4.840     4.890     4.840                       *               </v>
         <stp/>
         <stp>_x0006_TAIFX3_x0007_ROW80_8_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="N5" s="2"/>
         <tr r="O5" s="2"/>
         <tr r="O5" s="3"/>
+        <tr r="O5" s="5"/>
+        <tr r="N5" s="5"/>
         <tr r="N5" s="3"/>
         <tr r="O5" s="4"/>
         <tr r="N5" s="4"/>
-        <tr r="N5" s="5"/>
-        <tr r="O5" s="5"/>
+        <tr r="O5" s="7"/>
+        <tr r="N5" s="7"/>
+        <tr r="N5" s="2"/>
       </tp>
       <tp t="s">
         <v>USDOND=</v>
         <stp/>
         <stp>_x0007_USDOND=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="C16" s="2"/>
+        <tr r="C16" s="3"/>
         <tr r="C16" s="4"/>
-        <tr r="C16" s="3"/>
         <tr r="C16" s="5"/>
-        <tr r="C16" s="2"/>
+        <tr r="C16" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>7.2612000000000005</v>
+        <v>6.9376000000000007</v>
         <stp/>
         <stp>_x0004_CNH=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="E1" s="3"/>
         <tr r="E1" s="2"/>
-        <tr r="E1" s="3"/>
         <tr r="E1" s="4"/>
         <tr r="E1" s="5"/>
+        <tr r="E1" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
@@ -659,150 +722,28 @@
         <v>USDSWD=</v>
         <stp/>
         <stp>_x0007_USDSWD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="C18" s="3"/>
         <tr r="C18" s="4"/>
-        <tr r="C18" s="3"/>
+        <tr r="C18" s="2"/>
         <tr r="C18" s="5"/>
-        <tr r="C18" s="2"/>
+        <tr r="C18" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>USDTND=</v>
         <stp/>
         <stp>_x0007_USDTND=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="C17" s="4"/>
         <tr r="C17" s="3"/>
+        <tr r="C17" s="2"/>
         <tr r="C17" s="5"/>
-        <tr r="C17" s="2"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-3.2</v>
-        <stp/>
-        <stp>{3EFEB3CA-D353-433C-A6BD-77D56D74255B}</stp>
-        <tr r="N17" s="5"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-7.5</v>
-        <stp/>
-        <stp>{3950A14C-1495-4C79-82B0-0B0BBA55CE2E}</stp>
-        <tr r="J16" s="4"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-11.5</v>
-        <stp/>
-        <stp>{B841316E-19B7-44D2-863D-D4971B0BC7D9}</stp>
-        <tr r="I16" s="3"/>
+        <tr r="C17" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
         <v xml:space="preserve">SN    </v>
         <stp/>
-        <stp>{A197C6AF-71FD-43DD-80CC-7A52E0579A96}</stp>
-        <tr r="M17" s="3"/>
-      </tp>
-      <tp>
-        <v>-7.5</v>
-        <stp/>
-        <stp>{5FE7E457-DE0F-468E-8335-311E23DD47F9}</stp>
-        <tr r="J16" s="5"/>
-      </tp>
-      <tp>
-        <v>-7.5</v>
-        <stp/>
-        <stp>{31AE155D-44BB-4A72-B6D1-2B23F3D1994A}</stp>
-        <tr r="J16" s="2"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-2.7</v>
-        <stp/>
-        <stp>{ACC92956-FBD5-4E67-B2D1-3AA51DDC7A3A}</stp>
-        <tr r="O17" s="2"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-3.2</v>
-        <stp/>
-        <stp>{49C87F16-7043-4A0B-90F5-20E0AB0A7A2F}</stp>
-        <tr r="N17" s="4"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-7.5</v>
-        <stp/>
-        <stp>{03F1B839-57BF-4632-8579-7EFECD826A81}</stp>
-        <tr r="J16" s="3"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-3.2</v>
-        <stp/>
-        <stp>{B5DE02C3-DFEF-4168-A669-17662170C9D0}</stp>
-        <tr r="N17" s="2"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-2.7</v>
-        <stp/>
-        <stp>{B5FCC5C5-68ED-4EF2-9C04-E1A7D72A9BCE}</stp>
-        <tr r="O17" s="4"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-2.7</v>
-        <stp/>
-        <stp>{5AB799DE-1A4C-4B5F-8D1C-E84B5FD3B321}</stp>
-        <tr r="O17" s="5"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v xml:space="preserve">SN    </v>
-        <stp/>
-        <stp>{DDE23C4A-0AAE-4760-A5C9-DFC8437E2A8B}</stp>
-        <tr r="M17" s="4"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-2.7</v>
-        <stp/>
-        <stp>{26F0584E-E1CB-4991-99C5-83F9C8A9462B}</stp>
-        <tr r="O17" s="3"/>
-      </tp>
-      <tp>
-        <v>-11.5</v>
-        <stp/>
-        <stp>{3F23B042-6D64-408A-8E2F-7B73144B31D9}</stp>
-        <tr r="I16" s="4"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp>
-        <v>-11.5</v>
-        <stp/>
-        <stp>{092ED472-BCC7-4BBF-93B7-1020716CA556}</stp>
-        <tr r="I16" s="2"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v xml:space="preserve">SN    </v>
-        <stp/>
-        <stp>{EC0FFF0C-BC05-413D-831D-1EED954DEC6A}</stp>
+        <stp>{34FE1EF4-3DC8-4FAC-A6D2-1436F358B1DD}</stp>
         <tr r="M17" s="2"/>
       </tp>
     </main>
@@ -810,24 +751,176 @@
       <tp t="s">
         <v xml:space="preserve">SN    </v>
         <stp/>
-        <stp>{01F17C2A-2AEB-45D2-A49D-C6AC7C53FDD8}</stp>
-        <tr r="M17" s="5"/>
+        <stp>{F5E6830B-1748-4E2C-B3E4-E64EE3CC4B31}</stp>
+        <tr r="M17" s="3"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp>
-        <v>-11.5</v>
+        <v>-6</v>
         <stp/>
-        <stp>{5693D072-0B85-44C8-B083-733837265017}</stp>
-        <tr r="I16" s="5"/>
+        <stp>{706B0948-9265-4E0E-B3D5-853E3B392F62}</stp>
+        <tr r="N17" s="3"/>
       </tp>
     </main>
     <main first="pldatasource.rdatartdserver">
       <tp>
-        <v>-3.2</v>
+        <v>-5</v>
         <stp/>
-        <stp>{21925CEA-7326-47F5-94F3-1A85538B9F03}</stp>
-        <tr r="N17" s="3"/>
+        <stp>{B0B9E91E-F96B-4275-9067-5944546F63CB}</stp>
+        <tr r="O17" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-5</v>
+        <stp/>
+        <stp>{25C1FE51-139B-4313-91A6-7756058D59D8}</stp>
+        <tr r="O17" s="2"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-9.9</v>
+        <stp/>
+        <stp>{8E385BC6-A9B4-4222-BAAE-A5942E881C6E}</stp>
+        <tr r="I16" s="2"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-6</v>
+        <stp/>
+        <stp>{9582B52B-5573-4754-A6BD-2D0D480B16CE}</stp>
+        <tr r="N17" s="5"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-6</v>
+        <stp/>
+        <stp>{17DDD627-C668-49A5-8311-B1D2964C6A8E}</stp>
+        <tr r="N17" s="4"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-9.9</v>
+        <stp/>
+        <stp>{48D63BDC-C220-4819-A56A-8F6D8103BD27}</stp>
+        <tr r="I16" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v xml:space="preserve">SN    </v>
+        <stp/>
+        <stp>{925D9270-E17B-4CE2-9231-738064859CFE}</stp>
+        <tr r="M17" s="5"/>
+      </tp>
+      <tp>
+        <v>-6</v>
+        <stp/>
+        <stp>{AFA7A3A6-1374-48CF-BC4F-7B2D81CB37AB}</stp>
+        <tr r="N17" s="2"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-5</v>
+        <stp/>
+        <stp>{1CA84E6E-4D0B-4D74-A2B0-196E2CBF4064}</stp>
+        <tr r="O17" s="3"/>
+      </tp>
+      <tp>
+        <v>-5</v>
+        <stp/>
+        <stp>{BD1ECDB3-B0DD-453F-946B-8AA6686ED78B}</stp>
+        <tr r="O17" s="5"/>
+      </tp>
+      <tp>
+        <v>-9.9</v>
+        <stp/>
+        <stp>{C8A78C8C-5EE7-4846-A9B6-F8F6923ED914}</stp>
+        <tr r="I16" s="4"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-3.4</v>
+        <stp/>
+        <stp>{C3545D98-D88E-4398-9F2F-6C24CE85087A}</stp>
+        <tr r="J16" s="5"/>
+      </tp>
+      <tp>
+        <v>-5</v>
+        <stp/>
+        <stp>{58BD4B0F-A1A9-48EF-BA20-1E82FBF6D0BF}</stp>
+        <tr r="O17" s="4"/>
+      </tp>
+      <tp>
+        <v>-9.9</v>
+        <stp/>
+        <stp>{D15F36B3-2255-4508-8F0C-0F87A3B89935}</stp>
+        <tr r="I16" s="3"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-3.4</v>
+        <stp/>
+        <stp>{96C8439A-B9D2-463F-B7CD-5BC4B514C697}</stp>
+        <tr r="J16" s="3"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v xml:space="preserve">SN    </v>
+        <stp/>
+        <stp>{79179532-4D7E-4BF7-9C39-CE406ADFB7D4}</stp>
+        <tr r="M17" s="4"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-9.9</v>
+        <stp/>
+        <stp>{522588CD-06A4-43BB-BF79-651872B880F6}</stp>
+        <tr r="I16" s="5"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">SN    </v>
+        <stp/>
+        <stp>{CA34C113-CAD1-4344-A1F2-908FB63AD81E}</stp>
+        <tr r="M17" s="7"/>
+      </tp>
+      <tp>
+        <v>-3.4</v>
+        <stp/>
+        <stp>{A24574CB-E165-404F-908A-23747294E0AD}</stp>
+        <tr r="J16" s="2"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-6</v>
+        <stp/>
+        <stp>{C4E18E4B-96BB-4E0C-B267-98E061D2919C}</stp>
+        <tr r="N17" s="7"/>
+      </tp>
+      <tp>
+        <v>-3.4</v>
+        <stp/>
+        <stp>{CE2B0996-71F3-4D24-9913-AE65D32B5AD8}</stp>
+        <tr r="J16" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp>
+        <v>-3.4</v>
+        <stp/>
+        <stp>{36897D59-9C26-474F-A44A-6BB31C0FA44A}</stp>
+        <tr r="J16" s="4"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
@@ -836,47 +929,50 @@
         <stp/>
         <stp>_x0007_USD9MD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="C24" s="4"/>
+        <tr r="C24" s="2"/>
+        <tr r="C24" s="5"/>
         <tr r="C24" s="3"/>
-        <tr r="C24" s="5"/>
-        <tr r="C24" s="2"/>
+        <tr r="C24" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>USD3MD=</v>
         <stp/>
         <stp>_x0007_USD3MD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="C22" s="4"/>
+        <tr r="C22" s="2"/>
         <tr r="C22" s="3"/>
         <tr r="C22" s="5"/>
-        <tr r="C22" s="2"/>
+        <tr r="C22" s="4"/>
+        <tr r="C22" s="7"/>
       </tp>
       <tp t="s">
         <v>USD2WD=</v>
         <stp/>
         <stp>_x0007_USD2WD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="C19" s="4"/>
         <tr r="C19" s="3"/>
         <tr r="C19" s="5"/>
+        <tr r="C19" s="4"/>
         <tr r="C19" s="2"/>
+        <tr r="C19" s="7"/>
       </tp>
       <tp t="s">
         <v>USD2MD=</v>
         <stp/>
         <stp>_x0007_USD2MD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="C21" s="5"/>
+        <tr r="C21" s="3"/>
+        <tr r="C21" s="2"/>
         <tr r="C21" s="4"/>
-        <tr r="C21" s="3"/>
-        <tr r="C21" s="5"/>
-        <tr r="C21" s="2"/>
+        <tr r="C21" s="7"/>
       </tp>
       <tp t="s">
         <v>USD1YD=</v>
         <stp/>
         <stp>_x0007_USD1YD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="C25" s="2"/>
+        <tr r="C25" s="3"/>
         <tr r="C25" s="4"/>
-        <tr r="C25" s="3"/>
         <tr r="C25" s="5"/>
-        <tr r="C25" s="2"/>
+        <tr r="C25" s="7"/>
       </tp>
       <tp t="s">
         <v>USD1MD=</v>
@@ -884,197 +980,219 @@
         <stp>_x0007_USD1MD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="C20" s="4"/>
         <tr r="C20" s="3"/>
+        <tr r="C20" s="2"/>
         <tr r="C20" s="5"/>
-        <tr r="C20" s="2"/>
+        <tr r="C20" s="7"/>
       </tp>
       <tp t="s">
         <v>USD6MD=</v>
         <stp/>
         <stp>_x0007_USD6MD=_x0008_RIC NAME_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="C23" s="3"/>
+        <tr r="C23" s="2"/>
+        <tr r="C23" s="5"/>
         <tr r="C23" s="4"/>
-        <tr r="C23" s="3"/>
-        <tr r="C23" s="5"/>
-        <tr r="C23" s="2"/>
+        <tr r="C23" s="7"/>
       </tp>
       <tp>
-        <v>5.14</v>
+        <v>5.3500000000000005</v>
         <stp/>
         <stp>_x0007_USD6MD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="E23" s="3"/>
         <tr r="E23" s="2"/>
-        <tr r="E23" s="3"/>
+        <tr r="E23" s="5"/>
         <tr r="E23" s="4"/>
-        <tr r="E23" s="5"/>
+        <tr r="E23" s="7"/>
       </tp>
       <tp>
-        <v>4.8899999999999997</v>
+        <v>5.25</v>
         <stp/>
         <stp>_x0007_USD6MD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="D23" s="5"/>
         <tr r="D23" s="2"/>
         <tr r="D23" s="3"/>
         <tr r="D23" s="4"/>
-        <tr r="D23" s="5"/>
+        <tr r="D23" s="7"/>
       </tp>
       <tp>
-        <v>4.8</v>
+        <v>5.3500000000000005</v>
         <stp/>
         <stp>_x0007_USD3MD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="E22" s="4"/>
+        <tr r="E22" s="3"/>
+        <tr r="E22" s="5"/>
         <tr r="E22" s="2"/>
-        <tr r="E22" s="3"/>
-        <tr r="E22" s="4"/>
-        <tr r="E22" s="5"/>
+        <tr r="E22" s="7"/>
       </tp>
       <tp>
-        <v>4.55</v>
+        <v>5.25</v>
         <stp/>
         <stp>_x0007_USD3MD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="D22" s="2"/>
+        <tr r="D22" s="5"/>
         <tr r="D22" s="3"/>
         <tr r="D22" s="4"/>
-        <tr r="D22" s="5"/>
+        <tr r="D22" s="2"/>
+        <tr r="D22" s="7"/>
       </tp>
       <tp>
-        <v>3.4</v>
+        <v>4.95</v>
         <stp/>
         <stp>_x0007_USD2WD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="D19" s="3"/>
+        <tr r="D19" s="5"/>
         <tr r="D19" s="2"/>
-        <tr r="D19" s="3"/>
         <tr r="D19" s="4"/>
-        <tr r="D19" s="5"/>
+        <tr r="D19" s="7"/>
       </tp>
       <tp>
-        <v>3.6</v>
+        <v>5.05</v>
         <stp/>
         <stp>_x0007_USD2WD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="E19" s="4"/>
         <tr r="E19" s="2"/>
+        <tr r="E19" s="5"/>
         <tr r="E19" s="3"/>
-        <tr r="E19" s="4"/>
-        <tr r="E19" s="5"/>
+        <tr r="E19" s="7"/>
       </tp>
       <tp>
-        <v>4.1399999999999997</v>
+        <v>5.25</v>
         <stp/>
         <stp>_x0007_USD2MD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="E21" s="2"/>
+        <tr r="E21" s="5"/>
         <tr r="E21" s="3"/>
         <tr r="E21" s="4"/>
-        <tr r="E21" s="5"/>
+        <tr r="E21" s="7"/>
       </tp>
       <tp>
-        <v>3.89</v>
+        <v>5.15</v>
         <stp/>
         <stp>_x0007_USD2MD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="D21" s="2"/>
         <tr r="D21" s="3"/>
         <tr r="D21" s="4"/>
         <tr r="D21" s="5"/>
+        <tr r="D21" s="2"/>
+        <tr r="D21" s="7"/>
       </tp>
       <tp>
-        <v>5.54</v>
+        <v>5.3500000000000005</v>
         <stp/>
         <stp>_x0007_USD1YD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="E25" s="2"/>
         <tr r="E25" s="3"/>
         <tr r="E25" s="4"/>
         <tr r="E25" s="5"/>
+        <tr r="E25" s="7"/>
       </tp>
       <tp>
-        <v>5.47</v>
+        <v>5.25</v>
         <stp/>
         <stp>_x0007_USD1YD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="D25" s="5"/>
+        <tr r="D25" s="4"/>
+        <tr r="D25" s="3"/>
         <tr r="D25" s="2"/>
-        <tr r="D25" s="3"/>
-        <tr r="D25" s="4"/>
-        <tr r="D25" s="5"/>
+        <tr r="D25" s="7"/>
       </tp>
       <tp>
-        <v>3.99</v>
+        <v>5.15</v>
         <stp/>
         <stp>_x0007_USD1MD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="E20" s="2"/>
+        <tr r="E20" s="5"/>
         <tr r="E20" s="3"/>
         <tr r="E20" s="4"/>
-        <tr r="E20" s="5"/>
+        <tr r="E20" s="7"/>
       </tp>
       <tp>
-        <v>3.74</v>
+        <v>5.05</v>
         <stp/>
         <stp>_x0007_USD1MD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="D20" s="2"/>
+        <tr r="D20" s="5"/>
         <tr r="D20" s="3"/>
         <tr r="D20" s="4"/>
-        <tr r="D20" s="5"/>
+        <tr r="D20" s="2"/>
+        <tr r="D20" s="7"/>
       </tp>
       <tp>
-        <v>5.4</v>
+        <v>5.3500000000000005</v>
         <stp/>
         <stp>_x0007_USD9MD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="E24" s="2"/>
+        <tr r="E24" s="5"/>
         <tr r="E24" s="3"/>
         <tr r="E24" s="4"/>
-        <tr r="E24" s="5"/>
+        <tr r="E24" s="2"/>
+        <tr r="E24" s="7"/>
       </tp>
       <tp>
-        <v>5.2</v>
+        <v>5.25</v>
         <stp/>
         <stp>_x0007_USD9MD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="D24" s="3"/>
         <tr r="D24" s="2"/>
-        <tr r="D24" s="3"/>
         <tr r="D24" s="4"/>
         <tr r="D24" s="5"/>
+        <tr r="D24" s="7"/>
       </tp>
       <tp>
-        <v>3.04</v>
+        <v>4.74</v>
         <stp/>
         <stp>_x0007_USDTND=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="D17" s="3"/>
         <tr r="D17" s="2"/>
-        <tr r="D17" s="3"/>
         <tr r="D17" s="4"/>
         <tr r="D17" s="5"/>
+        <tr r="D17" s="7"/>
       </tp>
       <tp>
-        <v>3.24</v>
+        <v>4.99</v>
         <stp/>
         <stp>_x0007_USDTND=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="E17" s="2"/>
+        <tr r="E17" s="4"/>
         <tr r="E17" s="3"/>
-        <tr r="E17" s="4"/>
         <tr r="E17" s="5"/>
+        <tr r="E17" s="7"/>
       </tp>
       <tp>
-        <v>3.12</v>
+        <v>4.8500000000000005</v>
         <stp/>
         <stp>_x0007_USDSWD=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="D18" s="3"/>
+        <tr r="D18" s="5"/>
+        <tr r="D18" s="4"/>
         <tr r="D18" s="2"/>
-        <tr r="D18" s="3"/>
-        <tr r="D18" s="4"/>
-        <tr r="D18" s="5"/>
+        <tr r="D18" s="7"/>
       </tp>
       <tp>
-        <v>3.24</v>
+        <v>4.95</v>
         <stp/>
         <stp>_x0007_USDSWD=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="E18" s="4"/>
+        <tr r="E18" s="3"/>
         <tr r="E18" s="2"/>
-        <tr r="E18" s="3"/>
-        <tr r="E18" s="4"/>
         <tr r="E18" s="5"/>
+        <tr r="E18" s="7"/>
       </tp>
       <tp>
-        <v>3.04</v>
+        <v>4.75</v>
         <stp/>
         <stp>_x0007_USDOND=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="D16" s="2"/>
-        <tr r="D16" s="3"/>
         <tr r="D16" s="4"/>
         <tr r="D16" s="5"/>
+        <tr r="D16" s="3"/>
+        <tr r="D16" s="7"/>
       </tp>
       <tp>
-        <v>3.24</v>
+        <v>4.8500000000000005</v>
         <stp/>
         <stp>_x0007_USDOND=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="E16" s="2"/>
-        <tr r="E16" s="3"/>
         <tr r="E16" s="4"/>
         <tr r="E16" s="5"/>
+        <tr r="E16" s="3"/>
+        <tr r="E16" s="2"/>
+        <tr r="E16" s="7"/>
       </tp>
     </main>
   </volType>
@@ -1117,6 +1235,7 @@
       <sheetName val="CHF"/>
       <sheetName val="GBP"/>
       <sheetName val="JPY"/>
+      <sheetName val="JPY (2)"/>
       <sheetName val="EUR"/>
       <sheetName val="THBTWD"/>
     </sheetNames>
@@ -1128,57 +1247,47 @@
       <sheetData sheetId="4">
         <row r="7">
           <cell r="F7">
-            <v>44859</v>
+            <v>45050</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10">
-            <v>44866</v>
+            <v>45057</v>
           </cell>
         </row>
         <row r="11">
           <cell r="D11">
-            <v>44873</v>
+            <v>45064</v>
           </cell>
         </row>
         <row r="12">
           <cell r="D12">
-            <v>44890</v>
+            <v>45082</v>
           </cell>
         </row>
         <row r="13">
           <cell r="D13">
-            <v>44922</v>
+            <v>45112</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>44956</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>44984</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>45012</v>
+            <v>45142</v>
           </cell>
         </row>
         <row r="17">
           <cell r="D17">
-            <v>45041</v>
+            <v>45236</v>
           </cell>
         </row>
         <row r="18">
           <cell r="D18">
-            <v>45132</v>
+            <v>45327</v>
           </cell>
         </row>
         <row r="19">
           <cell r="D19">
-            <v>45224</v>
+            <v>45418</v>
           </cell>
         </row>
       </sheetData>
@@ -1211,6 +1320,7 @@
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1479,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1490,8 +1600,10 @@
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.625" customWidth="1"/>
     <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1501,15 +1613,19 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(D1:E1)</f>
-        <v>7.261000000000001</v>
+        <v>6.9375</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE($D$1:$E$1)</f>
+        <v>6.9375</v>
       </c>
       <c r="D1">
         <f>_xll.RtGet("IDN","CNH=","PRIMACT_1")</f>
-        <v>7.2608000000000006</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="E1">
         <f>_xll.RtGet("IDN","CNH=","SEC_ACT_1")</f>
-        <v>7.2612000000000005</v>
+        <v>6.9376000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1518,7 +1634,7 @@
       </c>
       <c r="B2" s="4">
         <f>B1+B5</f>
-        <v>7.2606500000000009</v>
+        <v>6.9340999999999999</v>
       </c>
       <c r="P2">
         <f>(N2+O2)/2</f>
@@ -1552,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
@@ -1562,23 +1678,23 @@
       </c>
       <c r="N4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="O4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="P4" s="25">
         <f>(N4+O4)/2</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="Q4" s="25">
         <f>P4-0.015</f>
-        <v>1.2476400000000003</v>
+        <v>1.7316700000000003</v>
       </c>
       <c r="R4" s="25">
         <f>P4+0.015</f>
-        <v>1.2776400000000001</v>
+        <v>1.7616700000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1587,10 +1703,10 @@
       </c>
       <c r="B5" s="9">
         <f>C5/10000</f>
-        <v>-3.5E-4</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="C5">
-        <v>-3.5</v>
+        <v>-34</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -1600,23 +1716,23 @@
       </c>
       <c r="N5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),15,8)</f>
-        <v>2.99</v>
+        <v>4.84</v>
       </c>
       <c r="O5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),6,7)</f>
-        <v>3.04</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="P5" s="25">
         <f>(N5+O5)/2</f>
-        <v>3.0150000000000001</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="Q5" s="25">
         <f>P5-0.015</f>
-        <v>3</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="R5" s="25">
         <f>P5+0.015</f>
-        <v>3.0300000000000002</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1633,7 +1749,7 @@
       </c>
       <c r="B7" s="12">
         <f>((B10/100*B4/B11+1)*B2/B1-1)*B8/B4*100</f>
-        <v>1.3145548133870477</v>
+        <v>1.922075171171489</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1662,7 +1778,7 @@
       </c>
       <c r="N9" s="22">
         <f>E10</f>
-        <v>1.7352981682963775</v>
+        <v>2.9405405405405403</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -1672,15 +1788,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17">
-        <v>3.05</v>
+        <f>P5</f>
+        <v>4.8650000000000002</v>
       </c>
       <c r="D10" s="20">
         <f>(B10-B7)</f>
-        <v>1.7354451866129521</v>
+        <v>2.9429248288285113</v>
       </c>
       <c r="E10">
         <f>-B5*(360/B4)/B1*100</f>
-        <v>1.7352981682963775</v>
+        <v>2.9405405405405403</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -1690,16 +1807,16 @@
       </c>
       <c r="N10" s="22">
         <f>Q5-R4</f>
-        <v>1.7223599999999999</v>
+        <v>3.0883300000000005</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="str">
         <f>IF(N10-$N$9&gt;0,"正","負")</f>
-        <v>負</v>
+        <v>正</v>
       </c>
       <c r="R10">
         <f>Q5-$N$9-0.015</f>
-        <v>1.2497018317036226</v>
+        <v>1.8944594594594604</v>
       </c>
       <c r="S10" t="s">
         <v>48</v>
@@ -1720,7 +1837,7 @@
       </c>
       <c r="N11" s="26">
         <f>R5-Q4</f>
-        <v>1.7823599999999999</v>
+        <v>3.1483299999999996</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="str">
@@ -1729,7 +1846,7 @@
       </c>
       <c r="R11">
         <f>R5-$N$9+0.015</f>
-        <v>1.3097018317036226</v>
+        <v>1.9544594594594595</v>
       </c>
       <c r="S11" t="s">
         <v>47</v>
@@ -1744,7 +1861,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f ca="1">'[1]CNH (2)'!$F$7</f>
-        <v>44859</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1759,10 +1876,10 @@
       </c>
       <c r="F15" s="18"/>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1772,26 +1889,26 @@
       </c>
       <c r="D16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","BID")</f>
-        <v>3.04</v>
+        <v>4.75</v>
       </c>
       <c r="E16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" ref="F16:F25" si="0">(D16+E16)/2</f>
-        <v>3.14</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <f>_xll.RData(H16:H25,"BID","RTFEED:IDN")</f>
-        <v>-11.5</v>
+        <v>-9.9</v>
       </c>
       <c r="J16">
         <f>_xll.RData(H16:H25,"ASK","RTFEED:IDN")</f>
-        <v>-7.5</v>
+        <v>-3.4</v>
       </c>
       <c r="N16" t="s">
         <v>45</v>
@@ -1803,43 +1920,46 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="S16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" s="18" t="str">
         <f>_xll.RtGet("IDN","USDTND=","RIC NAME")</f>
         <v>USDTND=</v>
       </c>
       <c r="D17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","BID")</f>
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="E17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.99</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>-4</v>
+        <v>-30</v>
       </c>
       <c r="J17">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="L17" t="s">
         <v>38</v>
@@ -1850,25 +1970,37 @@
       </c>
       <c r="N17">
         <f>_xll.RData(L17:L25,"PRIMACT_1","RTFEED:IDN")</f>
-        <v>-3.2</v>
+        <v>-6</v>
       </c>
       <c r="O17">
         <f>_xll.RData(L17:L25,"SEC_ACT_1","RTFEED:IDN")</f>
-        <v>-2.7</v>
+        <v>-5</v>
       </c>
       <c r="P17">
         <f>AVERAGE(N17:O17)</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
       <c r="Q17">
-        <f>P17</f>
-        <v>-2.95</v>
+        <f t="shared" ref="Q17:Q25" si="1">P17</f>
+        <v>-5.5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17:R25" si="2">-Q17/10000*(360/B17)/$B$1*100</f>
+        <v>2.8540540540540542</v>
+      </c>
+      <c r="S17" s="29">
+        <f t="shared" ref="S17:S25" si="3">$Q$5-R17-0.015</f>
+        <v>1.9809459459459464</v>
+      </c>
+      <c r="T17" s="29">
+        <f t="shared" ref="T17:T25" si="4">$R$5-R17+0.015</f>
+        <v>2.0409459459459458</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$10</f>
-        <v>44866</v>
+        <f ca="1">'[1]CNH (2)'!$D10</f>
+        <v>45057</v>
       </c>
       <c r="B18" s="27">
         <f ca="1">A18-$A$13</f>
@@ -1880,65 +2012,65 @@
       </c>
       <c r="D18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","BID")</f>
-        <v>3.12</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="E18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","ASK")</f>
-        <v>3.24</v>
+        <v>4.95</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>3.18</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18">
-        <v>-23</v>
+        <v>-44</v>
       </c>
       <c r="J18">
-        <v>-13</v>
+        <v>-34</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="N18">
-        <v>-19</v>
+        <v>-40</v>
       </c>
       <c r="O18">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="P18">
-        <f t="shared" ref="P18:P25" si="1">AVERAGE(N18:O18)</f>
-        <v>-18</v>
+        <f t="shared" ref="P18:P25" si="5">AVERAGE(N18:O18)</f>
+        <v>-39</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q25" si="2">P18</f>
-        <v>-18</v>
+        <f t="shared" si="1"/>
+        <v>-39</v>
       </c>
       <c r="R18">
-        <f ca="1">-Q18/10000*(360/B18)/$B$1*100</f>
-        <v>1.2749129399728487</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.891119691119691</v>
       </c>
       <c r="S18" s="29">
-        <f ca="1">$Q$5-R18-0.015</f>
-        <v>1.7100870600271514</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9438803088803096</v>
       </c>
       <c r="T18" s="29">
-        <f ca="1">$R$5-R18+0.015</f>
-        <v>1.7700870600271514</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.003880308880309</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$11</f>
-        <v>44873</v>
+        <f ca="1">'[1]CNH (2)'!$D11</f>
+        <v>45064</v>
       </c>
       <c r="B19" s="27">
-        <f t="shared" ref="B19:B25" ca="1" si="3">A19-$A$13</f>
+        <f t="shared" ref="B19:B25" ca="1" si="6">A19-$A$13</f>
         <v>14</v>
       </c>
       <c r="C19" s="18" t="str">
@@ -1947,66 +2079,66 @@
       </c>
       <c r="D19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","BID")</f>
-        <v>3.4</v>
+        <v>4.95</v>
       </c>
       <c r="E19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","ASK")</f>
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
-        <v>-43.25</v>
+        <v>-82.27</v>
       </c>
       <c r="J19">
-        <v>-33.25</v>
+        <v>-72.27</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N19">
-        <v>-40</v>
+        <v>-78</v>
       </c>
       <c r="O19">
-        <v>-37</v>
+        <v>-75</v>
       </c>
       <c r="P19">
+        <f t="shared" si="5"/>
+        <v>-76.5</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="1"/>
-        <v>-38.5</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>-38.5</v>
+        <v>-76.5</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R25" ca="1" si="4">-Q19/10000*(360/B19)/$B$1*100</f>
-        <v>1.3634485608042968</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8355212355212354</v>
       </c>
       <c r="S19" s="29">
-        <f t="shared" ref="S19:S25" ca="1" si="5">$Q$5-R19-0.015</f>
-        <v>1.6215514391957033</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9994787644787653</v>
       </c>
       <c r="T19" s="29">
-        <f t="shared" ref="T19:T25" ca="1" si="6">$R$5-R19+0.015</f>
-        <v>1.6815514391957034</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0594787644787647</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$12</f>
-        <v>44890</v>
+        <f ca="1">'[1]CNH (2)'!$D12</f>
+        <v>45082</v>
       </c>
       <c r="B20" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
       </c>
       <c r="C20" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1MD=","RIC NAME")</f>
@@ -2014,66 +2146,66 @@
       </c>
       <c r="D20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","BID")</f>
-        <v>3.74</v>
+        <v>5.05</v>
       </c>
       <c r="E20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","ASK")</f>
-        <v>3.99</v>
+        <v>5.15</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>3.8650000000000002</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
-        <v>-106</v>
+        <v>-178</v>
       </c>
       <c r="J20">
-        <v>-96</v>
+        <v>-168</v>
       </c>
       <c r="L20" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N20">
-        <v>-104</v>
+        <v>-174</v>
       </c>
       <c r="O20">
-        <v>-100</v>
+        <v>-172</v>
       </c>
       <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-173</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="1"/>
-        <v>-102</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>-102</v>
+        <v>-173</v>
       </c>
       <c r="R20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8054054054054052</v>
+      </c>
+      <c r="S20" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0295945945945952</v>
+      </c>
+      <c r="T20" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6313402135136454</v>
-      </c>
-      <c r="S20" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.3536597864863547</v>
-      </c>
-      <c r="T20" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.4136597864863547</v>
+        <v>2.0895945945945948</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$13</f>
-        <v>44922</v>
+        <f ca="1">'[1]CNH (2)'!$D13</f>
+        <v>45112</v>
       </c>
       <c r="B21" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="str">
         <f>_xll.RtGet("IDN","USD2MD=","RIC NAME")</f>
@@ -2081,66 +2213,66 @@
       </c>
       <c r="D21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","BID")</f>
-        <v>3.89</v>
+        <v>5.15</v>
       </c>
       <c r="E21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","ASK")</f>
-        <v>4.1399999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
-        <v>4.0149999999999997</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
-        <v>-239</v>
+        <v>-346</v>
       </c>
       <c r="J21">
-        <v>-219</v>
+        <v>-326</v>
       </c>
       <c r="L21" t="s">
         <v>41</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N21">
-        <v>-234</v>
+        <v>-338</v>
       </c>
       <c r="O21">
-        <v>-230</v>
+        <v>-334</v>
       </c>
       <c r="P21">
+        <f t="shared" si="5"/>
+        <v>-336</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="1"/>
-        <v>-232</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>-232</v>
+        <v>-336</v>
       </c>
       <c r="R21">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.812205754141238</v>
+      </c>
+      <c r="S21" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0227942458587624</v>
+      </c>
+      <c r="T21" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8258012473685241</v>
-      </c>
-      <c r="S21" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.159198752631476</v>
-      </c>
-      <c r="T21" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.219198752631476</v>
+        <v>2.0827942458587621</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$14</f>
-        <v>44956</v>
+        <f ca="1">'[1]CNH (2)'!$D14</f>
+        <v>45142</v>
       </c>
       <c r="B22" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="str">
         <f>_xll.RtGet("IDN","USD3MD=","RIC NAME")</f>
@@ -2148,66 +2280,66 @@
       </c>
       <c r="D22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","BID")</f>
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","ASK")</f>
-        <v>4.8</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="0"/>
-        <v>4.6749999999999998</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
-        <v>-393</v>
+        <v>-512.75</v>
       </c>
       <c r="J22">
-        <v>-368</v>
+        <v>-492.75</v>
       </c>
       <c r="L22" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N22">
-        <v>-385</v>
+        <v>-504</v>
       </c>
       <c r="O22">
-        <v>-380</v>
+        <v>-499</v>
       </c>
       <c r="P22">
+        <f t="shared" si="5"/>
+        <v>-501.5</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="1"/>
-        <v>-382.5</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>-382.5</v>
+        <v>-501.5</v>
       </c>
       <c r="R22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8286721504112808</v>
+      </c>
+      <c r="S22" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0063278495887196</v>
+      </c>
+      <c r="T22" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9550855651645493</v>
-      </c>
-      <c r="S22" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0299144348354508</v>
-      </c>
-      <c r="T22" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.0899144348354508</v>
+        <v>2.0663278495887192</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$15</f>
-        <v>44984</v>
+        <f ca="1">'[1]CNH (2)'!$D17</f>
+        <v>45236</v>
       </c>
       <c r="B23" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>186</v>
       </c>
       <c r="C23" s="18" t="str">
         <f>_xll.RtGet("IDN","USD6MD=","RIC NAME")</f>
@@ -2215,66 +2347,66 @@
       </c>
       <c r="D23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","BID")</f>
-        <v>4.8899999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="E23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","ASK")</f>
-        <v>5.14</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>5.0149999999999997</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23">
-        <v>-860</v>
+        <v>-1006.4</v>
       </c>
       <c r="J23">
-        <v>-800</v>
+        <v>-953.6</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N23">
-        <v>-840</v>
+        <v>-985</v>
       </c>
       <c r="O23">
-        <v>-830</v>
+        <v>-975</v>
       </c>
       <c r="P23">
+        <f t="shared" si="5"/>
+        <v>-980</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="1"/>
-        <v>-835</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>-835</v>
+        <v>-980</v>
       </c>
       <c r="R23">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7340889276373148</v>
+      </c>
+      <c r="S23" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1009110723626856</v>
+      </c>
+      <c r="T23" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3119405040628007</v>
-      </c>
-      <c r="S23" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.32694050406280073</v>
-      </c>
-      <c r="T23" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.26694050406280045</v>
+        <v>2.1609110723626852</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$16</f>
-        <v>45012</v>
+        <f ca="1">'[1]CNH (2)'!$D18</f>
+        <v>45327</v>
       </c>
       <c r="B24" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>153</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>277</v>
       </c>
       <c r="C24" s="18" t="str">
         <f>_xll.RtGet("IDN","USD9MD=","RIC NAME")</f>
@@ -2282,11 +2414,11 @@
       </c>
       <c r="D24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","BID")</f>
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="E24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","ASK")</f>
-        <v>5.4</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
@@ -2296,52 +2428,52 @@
         <v>21</v>
       </c>
       <c r="I24">
-        <v>-1305</v>
+        <v>-1404</v>
       </c>
       <c r="J24">
-        <v>-1255</v>
+        <v>-1316</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="N24">
-        <v>-1293</v>
+        <v>-1365</v>
       </c>
       <c r="O24">
-        <v>-1283</v>
+        <v>-1355</v>
       </c>
       <c r="P24">
+        <f t="shared" si="5"/>
+        <v>-1360</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="1"/>
-        <v>-1288</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>-1288</v>
+        <v>-1360</v>
       </c>
       <c r="R24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5477607571470391</v>
+      </c>
+      <c r="S24" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.2872392428529613</v>
+      </c>
+      <c r="T24" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1737890583860588</v>
-      </c>
-      <c r="S24" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>-1.1887890583860588</v>
-      </c>
-      <c r="T24" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.1287890583860587</v>
+        <v>2.3472392428529609</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$19</f>
-        <v>45224</v>
+        <f ca="1">'[1]CNH (2)'!$D19</f>
+        <v>45418</v>
       </c>
       <c r="B25" s="27">
-        <f t="shared" ca="1" si="3"/>
-        <v>365</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>368</v>
       </c>
       <c r="C25" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1YD=","RIC NAME")</f>
@@ -2349,259 +2481,238 @@
       </c>
       <c r="D25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","BID")</f>
-        <v>5.47</v>
+        <v>5.25</v>
       </c>
       <c r="E25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","ASK")</f>
-        <v>5.54</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>5.5049999999999999</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25">
-        <v>-1715</v>
+        <v>-1680.6200000000001</v>
       </c>
       <c r="J25">
-        <v>-1655</v>
+        <v>-1597.3700000000001</v>
       </c>
       <c r="L25" t="s">
         <v>52</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N25">
-        <v>-1700</v>
+        <v>-1660</v>
       </c>
       <c r="O25">
-        <v>-1680</v>
+        <v>-1640</v>
       </c>
       <c r="P25">
+        <f t="shared" si="5"/>
+        <v>-1650</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="1"/>
-        <v>-1690</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>-1690</v>
+        <v>-1650</v>
       </c>
       <c r="R25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.326674500587544</v>
+      </c>
+      <c r="S25" s="29">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5083254994124564</v>
+      </c>
+      <c r="T25" s="29">
         <f t="shared" ca="1" si="4"/>
-        <v>2.295619494654308</v>
-      </c>
-      <c r="S25" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.68938050534569195</v>
-      </c>
-      <c r="T25" s="29">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.74938050534569223</v>
-      </c>
+        <v>2.568325499412456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28">
-        <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
-      </c>
-      <c r="C28" s="27">
-        <f ca="1">$B$19-$B$28</f>
-        <v>4</v>
-      </c>
-      <c r="E28" s="30">
-        <v>44869</v>
+        <v>60</v>
+      </c>
+      <c r="E28" s="33">
+        <v>45008</v>
       </c>
       <c r="F28" s="28">
-        <f>P5+0.75</f>
-        <v>3.7650000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="G28" s="28">
-        <f>(F28-$P$5)*100</f>
-        <v>75</v>
-      </c>
-      <c r="H28">
-        <f>G28/25</f>
-        <v>3</v>
+        <f t="shared" ref="G28:G33" si="7">(F28-$P$5)*100</f>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28">
+        <f>Q21-Q20</f>
+        <v>-163</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="29">
-        <f ca="1">S19</f>
-        <v>1.6215514391957033</v>
-      </c>
-      <c r="C29" s="29">
-        <f ca="1">B29+0.75</f>
-        <v>2.3715514391957031</v>
-      </c>
-      <c r="E29" s="30">
-        <v>44911</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="E29" s="33">
+        <v>45050</v>
       </c>
       <c r="F29" s="28">
-        <f>F28+0.75</f>
-        <v>4.5150000000000006</v>
+        <f t="shared" ref="F29:F34" si="8">F28+0</f>
+        <v>4.75</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" ref="G29:G36" si="7">(F29-$P$5)*100</f>
-        <v>150.00000000000006</v>
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H29">
-        <f>(G29-G28)/25</f>
-        <v>3.0000000000000022</v>
+        <f t="shared" ref="H29:H34" si="9">(G29-G28)/25</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29">
+        <f>Q22-Q20</f>
+        <v>-328.5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="32">
-        <f ca="1">SUMPRODUCT(B29:C29,B28:C28)/SUM(B28:C28)</f>
-        <v>1.8358371534814175</v>
-      </c>
-      <c r="E30" s="30">
-        <v>44960</v>
+      <c r="B30" s="32"/>
+      <c r="E30" s="33">
+        <v>45092</v>
       </c>
       <c r="F30" s="28">
-        <v>4.8499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H36" si="8">(G30-G29)/25</f>
-        <v>1.3399999999999954</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30">
+        <f>Q23-Q20</f>
+        <v>-807</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="30">
-        <v>45009</v>
+      <c r="E31" s="33">
+        <v>45134</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" ref="F30:F36" si="9">F30+0</f>
-        <v>4.8499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32">
-        <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
-      </c>
-      <c r="C32" s="27">
-        <f ca="1">$B$19-$B$28</f>
-        <v>4</v>
-      </c>
-      <c r="E32" s="30">
-        <v>45051</v>
+        <v>61</v>
+      </c>
+      <c r="E32" s="33">
+        <v>45190</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="E33" s="33">
+        <v>45232</v>
+      </c>
+      <c r="F33" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="29">
-        <f ca="1">T19</f>
-        <v>1.6815514391957034</v>
-      </c>
-      <c r="C33" s="29">
-        <f ca="1">B33+0.75</f>
-        <v>2.4315514391957036</v>
-      </c>
-      <c r="E33" s="30">
-        <v>45093</v>
-      </c>
-      <c r="F33" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="E34" s="33">
+        <v>45274</v>
+      </c>
+      <c r="F34" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="32">
-        <f ca="1">SUMPRODUCT(B33:C33,B32:C32)/SUM(B32:C32)</f>
-        <v>1.8958371534814178</v>
-      </c>
-      <c r="E34" s="30">
-        <v>45135</v>
-      </c>
-      <c r="F34" s="28">
+        <v>4.75</v>
+      </c>
+      <c r="G34" s="28">
+        <f>(F34-$R$5)*100</f>
+        <v>-12.999999999999989</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G34" s="28">
-        <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="30">
-        <v>45191</v>
-      </c>
-      <c r="F35" s="28">
-        <v>4.8</v>
-      </c>
-      <c r="G35" s="28">
-        <f t="shared" si="7"/>
-        <v>178.49999999999997</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>-0.19999999999999887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="30">
-        <v>45233</v>
-      </c>
-      <c r="F36" s="28">
-        <v>4.7</v>
-      </c>
-      <c r="G36" s="28">
-        <f t="shared" si="7"/>
-        <v>168.5</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>-0.39999999999999886</v>
-      </c>
+        <v>-5.9999999999998721E-2</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="L34" s="32"/>
+      <c r="O34" s="32"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L38" s="32"/>
+      <c r="O38" s="32"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L40" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2612,16 +2723,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
@@ -2632,17 +2744,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <f>AVERAGE(D1:E1)</f>
-        <v>7.261000000000001</v>
+      <c r="B1">
+        <f>AVERAGE($D$1:$E$1)</f>
+        <v>6.9375</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE($D$1:$E$1)</f>
+        <v>6.9375</v>
       </c>
       <c r="D1">
         <f>_xll.RtGet("IDN","CNH=","PRIMACT_1")</f>
-        <v>7.2608000000000006</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="E1">
         <f>_xll.RtGet("IDN","CNH=","SEC_ACT_1")</f>
-        <v>7.2612000000000005</v>
+        <v>6.9376000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2651,7 +2767,7 @@
       </c>
       <c r="B2" s="4">
         <f>B1+B5</f>
-        <v>7.2607300000000006</v>
+        <v>6.9378000000000002</v>
       </c>
       <c r="P2">
         <f>(N2+O2)/2</f>
@@ -2695,23 +2811,23 @@
       </c>
       <c r="N4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="O4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
-      </c>
-      <c r="P4">
+        <v>1.7466700000000002</v>
+      </c>
+      <c r="P4" s="25">
         <f>(N4+O4)/2</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="Q4" s="25">
         <f>P4-0.015</f>
-        <v>1.2476400000000003</v>
+        <v>1.7316700000000003</v>
       </c>
       <c r="R4" s="25">
         <f>P4+0.015</f>
-        <v>1.2776400000000001</v>
+        <v>1.7616700000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2720,10 +2836,10 @@
       </c>
       <c r="B5" s="9">
         <f>C5/10000</f>
-        <v>-2.7E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C5">
-        <v>-2.7</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -2733,23 +2849,23 @@
       </c>
       <c r="N5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),15,8)</f>
-        <v>2.99</v>
+        <v>4.84</v>
       </c>
       <c r="O5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),6,7)</f>
-        <v>3.04</v>
-      </c>
-      <c r="P5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="P5" s="25">
         <f>(N5+O5)/2</f>
-        <v>3.0150000000000001</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="Q5" s="25">
         <f>P5-0.015</f>
-        <v>3</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="R5" s="25">
         <f>P5+0.015</f>
-        <v>3.0300000000000002</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2766,7 +2882,7 @@
       </c>
       <c r="B7" s="12">
         <f>((B10/100*B4/B11+1)*B2/B1-1)*B8/B4*100</f>
-        <v>1.6612298581462071</v>
+        <v>6.421967135128881</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2795,7 +2911,7 @@
       </c>
       <c r="N9" s="22">
         <f>E10</f>
-        <v>1.3386585869714913</v>
+        <v>-1.5567567567567564</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -2805,15 +2921,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17">
-        <v>3</v>
+        <f>P5</f>
+        <v>4.8650000000000002</v>
       </c>
       <c r="D10" s="20">
         <f>(B10-B7)</f>
-        <v>1.3387701418537929</v>
+        <v>-1.5569671351288807</v>
       </c>
       <c r="E10">
         <f>-B5*(360/B4)/B1*100</f>
-        <v>1.3386585869714913</v>
+        <v>-1.5567567567567564</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -2823,7 +2940,7 @@
       </c>
       <c r="N10" s="22">
         <f>Q5-R4</f>
-        <v>1.7223599999999999</v>
+        <v>3.0883300000000005</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="str">
@@ -2832,7 +2949,7 @@
       </c>
       <c r="R10">
         <f>Q5-$N$9-0.015</f>
-        <v>1.6463414130285088</v>
+        <v>6.3917567567567568</v>
       </c>
       <c r="S10" t="s">
         <v>48</v>
@@ -2853,7 +2970,7 @@
       </c>
       <c r="N11" s="26">
         <f>R5-Q4</f>
-        <v>1.7823599999999999</v>
+        <v>3.1483299999999996</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="str">
@@ -2862,7 +2979,7 @@
       </c>
       <c r="R11">
         <f>R5-$N$9+0.015</f>
-        <v>1.7063414130285088</v>
+        <v>6.4517567567567555</v>
       </c>
       <c r="S11" t="s">
         <v>47</v>
@@ -2877,7 +2994,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f ca="1">'[1]CNH (2)'!$F$7</f>
-        <v>44859</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2892,10 +3009,10 @@
       </c>
       <c r="F15" s="18"/>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2905,26 +3022,26 @@
       </c>
       <c r="D16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","BID")</f>
-        <v>3.04</v>
+        <v>4.75</v>
       </c>
       <c r="E16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" ref="F16:F25" si="0">(D16+E16)/2</f>
-        <v>3.14</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <f>_xll.RData(H16:H25,"BID","RTFEED:IDN")</f>
-        <v>-11.5</v>
+        <v>-9.9</v>
       </c>
       <c r="J16">
         <f>_xll.RData(H16:H25,"ASK","RTFEED:IDN")</f>
-        <v>-7.5</v>
+        <v>-3.4</v>
       </c>
       <c r="N16" t="s">
         <v>45</v>
@@ -2936,43 +3053,46 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="S16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" s="18" t="str">
         <f>_xll.RtGet("IDN","USDTND=","RIC NAME")</f>
         <v>USDTND=</v>
       </c>
       <c r="D17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","BID")</f>
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="E17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.99</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>-4</v>
+        <v>-30</v>
       </c>
       <c r="J17">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="L17" t="s">
         <v>38</v>
@@ -2983,25 +3103,25 @@
       </c>
       <c r="N17">
         <f>_xll.RData(L17:L25,"PRIMACT_1","RTFEED:IDN")</f>
-        <v>-3.2</v>
+        <v>-6</v>
       </c>
       <c r="O17">
         <f>_xll.RData(L17:L25,"SEC_ACT_1","RTFEED:IDN")</f>
-        <v>-2.7</v>
+        <v>-5</v>
       </c>
       <c r="P17">
         <f>AVERAGE(N17:O17)</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
       <c r="Q17">
         <f>P17</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$10</f>
-        <v>44866</v>
+        <f ca="1">'[1]CNH (2)'!$D10</f>
+        <v>45057</v>
       </c>
       <c r="B18" s="27">
         <f ca="1">A18-$A$13</f>
@@ -3013,62 +3133,62 @@
       </c>
       <c r="D18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","BID")</f>
-        <v>3.12</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="E18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","ASK")</f>
-        <v>3.24</v>
+        <v>4.95</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>3.18</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18">
-        <v>-23</v>
+        <v>-44</v>
       </c>
       <c r="J18">
-        <v>-13</v>
+        <v>-34</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N18">
-        <v>-19</v>
+        <v>-40</v>
       </c>
       <c r="O18">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="P18">
         <f t="shared" ref="P18:P25" si="1">AVERAGE(N18:O18)</f>
-        <v>-18</v>
+        <v>-39</v>
       </c>
       <c r="Q18">
         <f t="shared" ref="Q18:Q25" si="2">P18</f>
-        <v>-18</v>
+        <v>-39</v>
       </c>
       <c r="R18">
         <f ca="1">-Q18/10000*(360/B18)/$B$1*100</f>
-        <v>1.2749129399728487</v>
+        <v>2.891119691119691</v>
       </c>
       <c r="S18" s="29">
         <f ca="1">$Q$5-R18-0.015</f>
-        <v>1.7100870600271514</v>
+        <v>1.9438803088803096</v>
       </c>
       <c r="T18" s="29">
         <f ca="1">$R$5-R18+0.015</f>
-        <v>1.7700870600271514</v>
+        <v>2.003880308880309</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$11</f>
-        <v>44873</v>
+        <f ca="1">'[1]CNH (2)'!$D11</f>
+        <v>45064</v>
       </c>
       <c r="B19" s="27">
         <f t="shared" ref="B19:B25" ca="1" si="3">A19-$A$13</f>
@@ -3080,66 +3200,66 @@
       </c>
       <c r="D19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","BID")</f>
-        <v>3.4</v>
+        <v>4.95</v>
       </c>
       <c r="E19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","ASK")</f>
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
-        <v>-43.25</v>
+        <v>-82.27</v>
       </c>
       <c r="J19">
-        <v>-33.25</v>
+        <v>-72.27</v>
       </c>
       <c r="L19" t="s">
         <v>39</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="N19">
-        <v>-40</v>
+        <v>-78</v>
       </c>
       <c r="O19">
-        <v>-37</v>
+        <v>-75</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>-38.5</v>
+        <v>-76.5</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>-38.5</v>
+        <v>-76.5</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19:R25" ca="1" si="4">-Q19/10000*(360/B19)/$B$1*100</f>
-        <v>1.3634485608042968</v>
+        <v>2.8355212355212354</v>
       </c>
       <c r="S19" s="29">
         <f t="shared" ref="S19:S25" ca="1" si="5">$Q$5-R19-0.015</f>
-        <v>1.6215514391957033</v>
+        <v>1.9994787644787653</v>
       </c>
       <c r="T19" s="29">
         <f t="shared" ref="T19:T25" ca="1" si="6">$R$5-R19+0.015</f>
-        <v>1.6815514391957034</v>
+        <v>2.0594787644787647</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$12</f>
-        <v>44890</v>
+        <f ca="1">'[1]CNH (2)'!$D12</f>
+        <v>45082</v>
       </c>
       <c r="B20" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1MD=","RIC NAME")</f>
@@ -3147,66 +3267,66 @@
       </c>
       <c r="D20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","BID")</f>
-        <v>3.74</v>
+        <v>5.05</v>
       </c>
       <c r="E20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","ASK")</f>
-        <v>3.99</v>
+        <v>5.15</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>3.8650000000000002</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
-        <v>-106</v>
+        <v>-178</v>
       </c>
       <c r="J20">
-        <v>-96</v>
+        <v>-168</v>
       </c>
       <c r="L20" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N20">
-        <v>-104</v>
+        <v>-174</v>
       </c>
       <c r="O20">
-        <v>-100</v>
+        <v>-172</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>-102</v>
+        <v>-173</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>-102</v>
+        <v>-173</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6313402135136454</v>
+        <v>2.8054054054054052</v>
       </c>
       <c r="S20" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3536597864863547</v>
+        <v>2.0295945945945952</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4136597864863547</v>
+        <v>2.0895945945945948</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$13</f>
-        <v>44922</v>
+        <f ca="1">'[1]CNH (2)'!$D13</f>
+        <v>45112</v>
       </c>
       <c r="B21" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="str">
         <f>_xll.RtGet("IDN","USD2MD=","RIC NAME")</f>
@@ -3214,66 +3334,66 @@
       </c>
       <c r="D21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","BID")</f>
-        <v>3.89</v>
+        <v>5.15</v>
       </c>
       <c r="E21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","ASK")</f>
-        <v>4.1399999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
-        <v>4.0149999999999997</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
-        <v>-239</v>
+        <v>-346</v>
       </c>
       <c r="J21">
-        <v>-219</v>
+        <v>-326</v>
       </c>
       <c r="L21" t="s">
         <v>41</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N21">
-        <v>-234</v>
+        <v>-338</v>
       </c>
       <c r="O21">
-        <v>-230</v>
+        <v>-334</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>-232</v>
+        <v>-336</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>-232</v>
+        <v>-336</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8258012473685241</v>
+        <v>2.812205754141238</v>
       </c>
       <c r="S21" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.159198752631476</v>
+        <v>2.0227942458587624</v>
       </c>
       <c r="T21" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.219198752631476</v>
+        <v>2.0827942458587621</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$14</f>
-        <v>44956</v>
+        <f ca="1">'[1]CNH (2)'!$D14</f>
+        <v>45142</v>
       </c>
       <c r="B22" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="str">
         <f>_xll.RtGet("IDN","USD3MD=","RIC NAME")</f>
@@ -3281,66 +3401,66 @@
       </c>
       <c r="D22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","BID")</f>
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","ASK")</f>
-        <v>4.8</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="0"/>
-        <v>4.6749999999999998</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
-        <v>-393</v>
+        <v>-512.75</v>
       </c>
       <c r="J22">
-        <v>-368</v>
+        <v>-492.75</v>
       </c>
       <c r="L22" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N22">
-        <v>-385</v>
+        <v>-504</v>
       </c>
       <c r="O22">
-        <v>-380</v>
+        <v>-499</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>-382.5</v>
+        <v>-501.5</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>-382.5</v>
+        <v>-501.5</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9550855651645493</v>
+        <v>2.8286721504112808</v>
       </c>
       <c r="S22" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0299144348354508</v>
+        <v>2.0063278495887196</v>
       </c>
       <c r="T22" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0899144348354508</v>
+        <v>2.0663278495887192</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$15</f>
-        <v>44984</v>
+        <f ca="1">'[1]CNH (2)'!$D17</f>
+        <v>45236</v>
       </c>
       <c r="B23" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C23" s="18" t="str">
         <f>_xll.RtGet("IDN","USD6MD=","RIC NAME")</f>
@@ -3348,66 +3468,66 @@
       </c>
       <c r="D23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","BID")</f>
-        <v>4.8899999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="E23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","ASK")</f>
-        <v>5.14</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>5.0149999999999997</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23">
-        <v>-860</v>
+        <v>-1006.4</v>
       </c>
       <c r="J23">
-        <v>-800</v>
+        <v>-953.6</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N23">
-        <v>-840</v>
+        <v>-985</v>
       </c>
       <c r="O23">
-        <v>-830</v>
+        <v>-975</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>-835</v>
+        <v>-980</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>-835</v>
+        <v>-980</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3119405040628007</v>
+        <v>2.7340889276373148</v>
       </c>
       <c r="S23" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.32694050406280073</v>
+        <v>2.1009110723626856</v>
       </c>
       <c r="T23" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.26694050406280045</v>
+        <v>2.1609110723626852</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$16</f>
-        <v>45012</v>
+        <f ca="1">'[1]CNH (2)'!$D18</f>
+        <v>45327</v>
       </c>
       <c r="B24" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="C24" s="18" t="str">
         <f>_xll.RtGet("IDN","USD9MD=","RIC NAME")</f>
@@ -3415,11 +3535,11 @@
       </c>
       <c r="D24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","BID")</f>
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="E24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","ASK")</f>
-        <v>5.4</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
@@ -3429,52 +3549,52 @@
         <v>21</v>
       </c>
       <c r="I24">
-        <v>-1305</v>
+        <v>-1404</v>
       </c>
       <c r="J24">
-        <v>-1255</v>
+        <v>-1316</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="N24">
-        <v>-1293</v>
+        <v>-1365</v>
       </c>
       <c r="O24">
-        <v>-1283</v>
+        <v>-1355</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>-1288</v>
+        <v>-1360</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>-1288</v>
+        <v>-1360</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1737890583860588</v>
+        <v>2.5477607571470391</v>
       </c>
       <c r="S24" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.1887890583860588</v>
+        <v>2.2872392428529613</v>
       </c>
       <c r="T24" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.1287890583860587</v>
+        <v>2.3472392428529609</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$19</f>
-        <v>45224</v>
+        <f ca="1">'[1]CNH (2)'!$D19</f>
+        <v>45418</v>
       </c>
       <c r="B25" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C25" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1YD=","RIC NAME")</f>
@@ -3482,24 +3602,24 @@
       </c>
       <c r="D25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","BID")</f>
-        <v>5.47</v>
+        <v>5.25</v>
       </c>
       <c r="E25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","ASK")</f>
-        <v>5.54</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>5.5049999999999999</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25">
-        <v>-1715</v>
+        <v>-1680.6200000000001</v>
       </c>
       <c r="J25">
-        <v>-1655</v>
+        <v>-1597.3700000000001</v>
       </c>
       <c r="L25" t="s">
         <v>52</v>
@@ -3508,30 +3628,30 @@
         <v>74</v>
       </c>
       <c r="N25">
-        <v>-1700</v>
+        <v>-1660</v>
       </c>
       <c r="O25">
-        <v>-1680</v>
+        <v>-1640</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>-1690</v>
+        <v>-1650</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>-1690</v>
+        <v>-1650</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="4"/>
-        <v>2.295619494654308</v>
+        <v>2.326674500587544</v>
       </c>
       <c r="S25" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68938050534569195</v>
+        <v>2.5083254994124564</v>
       </c>
       <c r="T25" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74938050534569223</v>
+        <v>2.568325499412456</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3541,200 +3661,182 @@
       <c r="A27" s="30"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
       <c r="B28">
         <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
-      </c>
-      <c r="C28" s="27">
-        <f ca="1">$B$20-$B$28</f>
-        <v>21</v>
-      </c>
-      <c r="E28" s="30">
-        <v>44869</v>
+        <v>-42</v>
+      </c>
+      <c r="C28">
+        <f ca="1">$A$20-$E$28</f>
+        <v>74</v>
+      </c>
+      <c r="E28" s="33">
+        <v>45008</v>
       </c>
       <c r="F28" s="28">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="G28" s="28">
-        <v>75</v>
-      </c>
-      <c r="H28">
-        <f>G28/25</f>
-        <v>3</v>
-      </c>
+        <f t="shared" ref="G28:G33" si="7">(F28-$P$5)*100</f>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
       <c r="B29" s="29">
         <f ca="1">S20</f>
-        <v>1.3536597864863547</v>
+        <v>2.0295945945945952</v>
       </c>
       <c r="C29" s="29">
-        <f ca="1">B29+0.75</f>
-        <v>2.1036597864863547</v>
-      </c>
-      <c r="E29" s="30">
-        <v>44911</v>
+        <f ca="1">B29+0.5</f>
+        <v>2.5295945945945952</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="33">
+        <v>45050</v>
       </c>
       <c r="F29" s="28">
-        <f>F28+0.75</f>
-        <v>4.5</v>
+        <f t="shared" ref="F29:F34" si="8">F28+0</f>
+        <v>4.75</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" ref="G29:G36" si="7">(F29-$P$5)*100</f>
-        <v>148.5</v>
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H29">
-        <f>(G29-G28)/25</f>
-        <v>2.94</v>
-      </c>
+        <f t="shared" ref="H29:H34" si="9">(G29-G28)/25</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="32">
-        <f ca="1">SUMPRODUCT(B29:C29,B28:C28)/SUM(B28:C28)</f>
-        <v>1.8617243026153869</v>
-      </c>
-      <c r="E30" s="30">
-        <v>44960</v>
+        <f ca="1">SUMPRODUCT(B29:D29,B28:D28)/SUM(B28:D28)</f>
+        <v>3.1858445945945952</v>
+      </c>
+      <c r="E30" s="33">
+        <v>45092</v>
       </c>
       <c r="F30" s="28">
-        <v>4.8499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H36" si="8">(G30-G29)/25</f>
-        <v>1.3999999999999977</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="30">
-        <v>45009</v>
+      <c r="E31" s="33">
+        <v>45134</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" ref="F31:F37" si="9">F30+0</f>
-        <v>4.8499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
-      </c>
-      <c r="C32" s="27">
-        <f ca="1">$B$20-$B$28</f>
-        <v>21</v>
-      </c>
-      <c r="E32" s="30">
-        <v>45051</v>
+        <v>-42</v>
+      </c>
+      <c r="C32">
+        <f ca="1">$A$20-$E$28</f>
+        <v>74</v>
+      </c>
+      <c r="E32" s="33">
+        <v>45190</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="29">
+        <f ca="1">B29+0.06</f>
+        <v>2.0895945945945953</v>
+      </c>
+      <c r="C33" s="29">
+        <f ca="1">C29+0.06</f>
+        <v>2.5895945945945953</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="33">
+        <v>45232</v>
+      </c>
+      <c r="F33" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="29">
-        <f ca="1">T20</f>
-        <v>1.4136597864863547</v>
-      </c>
-      <c r="C33" s="29">
-        <f ca="1">B33+0.75</f>
-        <v>2.1636597864863547</v>
-      </c>
-      <c r="E33" s="30">
-        <v>45093</v>
-      </c>
-      <c r="F33" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <f ca="1">SUMPRODUCT(B33:D33,B32:D32)/SUM(B32:D32)</f>
+        <v>3.2458445945945953</v>
+      </c>
+      <c r="E34" s="33">
+        <v>45274</v>
+      </c>
+      <c r="F34" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="32">
-        <f ca="1">SUMPRODUCT(B33:C33,B32:C32)/SUM(B32:C32)</f>
-        <v>1.921724302615387</v>
-      </c>
-      <c r="E34" s="30">
-        <v>45135</v>
-      </c>
-      <c r="F34" s="28">
+        <v>4.75</v>
+      </c>
+      <c r="G34" s="28">
+        <f>(F34-$R$5)*100</f>
+        <v>-12.999999999999989</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G34" s="28">
-        <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="30">
-        <v>45191</v>
-      </c>
-      <c r="F35" s="28">
-        <v>4.8</v>
-      </c>
-      <c r="G35" s="28">
-        <f t="shared" si="7"/>
-        <v>178.49999999999997</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>-0.19999999999999887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="30">
-        <v>45233</v>
-      </c>
-      <c r="F36" s="28">
-        <v>4.7</v>
-      </c>
-      <c r="G36" s="28">
-        <f t="shared" si="7"/>
-        <v>168.5</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>-0.39999999999999886</v>
-      </c>
+        <v>-5.9999999999998721E-2</v>
+      </c>
+      <c r="J34" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3748,13 +3850,1168 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="A13" sqref="A13:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>AVERAGE(D1:E1)</f>
+        <v>6.9375</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE($D$1:$E$1)</f>
+        <v>6.9375</v>
+      </c>
+      <c r="D1">
+        <f>_xll.RtGet("IDN","CNH=","PRIMACT_1")</f>
+        <v>6.9374000000000002</v>
+      </c>
+      <c r="E1">
+        <f>_xll.RtGet("IDN","CNH=","SEC_ACT_1")</f>
+        <v>6.9376000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B1+B5</f>
+        <v>6.9368800000000004</v>
+      </c>
+      <c r="P2">
+        <f>(N2+O2)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="25">
+        <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
+        <v>1.7466700000000002</v>
+      </c>
+      <c r="O4" s="25">
+        <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
+        <v>1.7466700000000002</v>
+      </c>
+      <c r="P4" s="25">
+        <f>(N4+O4)/2</f>
+        <v>1.7466700000000002</v>
+      </c>
+      <c r="Q4" s="25">
+        <f>P4-0.015</f>
+        <v>1.7316700000000003</v>
+      </c>
+      <c r="R4" s="25">
+        <f>P4+0.015</f>
+        <v>1.7616700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <f>C5/10000</f>
+        <v>-6.2E-4</v>
+      </c>
+      <c r="C5">
+        <v>-6.2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="25">
+        <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),15,8)</f>
+        <v>4.84</v>
+      </c>
+      <c r="O5" s="25">
+        <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),6,7)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="P5" s="25">
+        <f>(N5+O5)/2</f>
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="Q5" s="25">
+        <f>P5-0.015</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="R5" s="25">
+        <f>P5+0.015</f>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12">
+        <f>((B10/100*B4/B11+1)*B2/B1-1)*B8/B4*100</f>
+        <v>1.6472679207240049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="22">
+        <f>E10</f>
+        <v>3.2172972972972973</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17">
+        <f>P5</f>
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="D10" s="20">
+        <f>(B10-B7)</f>
+        <v>3.2177320792759954</v>
+      </c>
+      <c r="E10">
+        <f>-B5*(360/B4)/B1*100</f>
+        <v>3.2172972972972973</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="22">
+        <f>Q5-R4</f>
+        <v>3.0883300000000005</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22" t="str">
+        <f>IF(N10-$N$9&gt;0,"正","負")</f>
+        <v>負</v>
+      </c>
+      <c r="R10">
+        <f>Q5-$N$9-0.015</f>
+        <v>1.6177027027027033</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>360</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="26">
+        <f>R5-Q4</f>
+        <v>3.1483299999999996</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22" t="str">
+        <f>IF(N9-N11&gt;0,"正","負")</f>
+        <v>正</v>
+      </c>
+      <c r="R11">
+        <f>R5-$N$9+0.015</f>
+        <v>1.6777027027027025</v>
+      </c>
+      <c r="S11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <f ca="1">'[1]CNH (2)'!$F$7</f>
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="S15" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="str">
+        <f>_xll.RtGet("IDN","USDOND=","RIC NAME")</f>
+        <v>USDOND=</v>
+      </c>
+      <c r="D16" s="19">
+        <f>_xll.RtGet("IDN","USDOND=","BID")</f>
+        <v>4.75</v>
+      </c>
+      <c r="E16" s="19">
+        <f>_xll.RtGet("IDN","USDOND=","ASK")</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" ref="F16:F25" si="0">(D16+E16)/2</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <f>_xll.RData(H16:H25,"BID","RTFEED:IDN")</f>
+        <v>-9.9</v>
+      </c>
+      <c r="J16">
+        <f>_xll.RData(H16:H25,"ASK","RTFEED:IDN")</f>
+        <v>-3.4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>_xll.RtGet("IDN","USDTND=","RIC NAME")</f>
+        <v>USDTND=</v>
+      </c>
+      <c r="D17" s="19">
+        <f>_xll.RtGet("IDN","USDTND=","BID")</f>
+        <v>4.74</v>
+      </c>
+      <c r="E17" s="19">
+        <f>_xll.RtGet("IDN","USDTND=","ASK")</f>
+        <v>4.99</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="0"/>
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>-30</v>
+      </c>
+      <c r="J17">
+        <v>-24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" t="str">
+        <f>_xll.RData(L17:L25,"GV4_TEXT","RTFEED:IDN")</f>
+        <v xml:space="preserve">SN    </v>
+      </c>
+      <c r="N17">
+        <f>_xll.RData(L17:L25,"PRIMACT_1","RTFEED:IDN")</f>
+        <v>-6</v>
+      </c>
+      <c r="O17">
+        <f>_xll.RData(L17:L25,"SEC_ACT_1","RTFEED:IDN")</f>
+        <v>-5</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGE(N17:O17)</f>
+        <v>-5.5</v>
+      </c>
+      <c r="Q17">
+        <f>P17</f>
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <f ca="1">'[1]CNH (2)'!$D10</f>
+        <v>45057</v>
+      </c>
+      <c r="B18" s="27">
+        <f ca="1">A18-$A$13</f>
+        <v>7</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>_xll.RtGet("IDN","USDSWD=","RIC NAME")</f>
+        <v>USDSWD=</v>
+      </c>
+      <c r="D18" s="19">
+        <f>_xll.RtGet("IDN","USDSWD=","BID")</f>
+        <v>4.8500000000000005</v>
+      </c>
+      <c r="E18" s="19">
+        <f>_xll.RtGet("IDN","USDSWD=","ASK")</f>
+        <v>4.95</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>-44</v>
+      </c>
+      <c r="J18">
+        <v>-34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18">
+        <v>-40</v>
+      </c>
+      <c r="O18">
+        <v>-38</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P25" si="1">AVERAGE(N18:O18)</f>
+        <v>-39</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q25" si="2">P18</f>
+        <v>-39</v>
+      </c>
+      <c r="R18">
+        <f ca="1">-Q18/10000*(360/B18)/$B$1*100</f>
+        <v>2.891119691119691</v>
+      </c>
+      <c r="S18" s="29">
+        <f ca="1">$Q$5-R18-0.015</f>
+        <v>1.9438803088803096</v>
+      </c>
+      <c r="T18" s="29">
+        <f ca="1">$R$5-R18+0.015</f>
+        <v>2.003880308880309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <f ca="1">'[1]CNH (2)'!$D11</f>
+        <v>45064</v>
+      </c>
+      <c r="B19" s="27">
+        <f t="shared" ref="B19:B25" ca="1" si="3">A19-$A$13</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD2WD=","RIC NAME")</f>
+        <v>USD2WD=</v>
+      </c>
+      <c r="D19" s="19">
+        <f>_xll.RtGet("IDN","USD2WD=","BID")</f>
+        <v>4.95</v>
+      </c>
+      <c r="E19" s="19">
+        <f>_xll.RtGet("IDN","USD2WD=","ASK")</f>
+        <v>5.05</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>-82.27</v>
+      </c>
+      <c r="J19">
+        <v>-72.27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19">
+        <v>-78</v>
+      </c>
+      <c r="O19">
+        <v>-75</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-76.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>-76.5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R25" ca="1" si="4">-Q19/10000*(360/B19)/$B$1*100</f>
+        <v>2.8355212355212354</v>
+      </c>
+      <c r="S19" s="29">
+        <f t="shared" ref="S19:S25" ca="1" si="5">$Q$5-R19-0.015</f>
+        <v>1.9994787644787653</v>
+      </c>
+      <c r="T19" s="29">
+        <f t="shared" ref="T19:T25" ca="1" si="6">$R$5-R19+0.015</f>
+        <v>2.0594787644787647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <f ca="1">'[1]CNH (2)'!$D12</f>
+        <v>45082</v>
+      </c>
+      <c r="B20" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD1MD=","RIC NAME")</f>
+        <v>USD1MD=</v>
+      </c>
+      <c r="D20" s="19">
+        <f>_xll.RtGet("IDN","USD1MD=","BID")</f>
+        <v>5.05</v>
+      </c>
+      <c r="E20" s="19">
+        <f>_xll.RtGet("IDN","USD1MD=","ASK")</f>
+        <v>5.15</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>-178</v>
+      </c>
+      <c r="J20">
+        <v>-168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20">
+        <v>-174</v>
+      </c>
+      <c r="O20">
+        <v>-172</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>-173</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>-173</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8054054054054052</v>
+      </c>
+      <c r="S20" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0295945945945952</v>
+      </c>
+      <c r="T20" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0895945945945948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <f ca="1">'[1]CNH (2)'!$D13</f>
+        <v>45112</v>
+      </c>
+      <c r="B21" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD2MD=","RIC NAME")</f>
+        <v>USD2MD=</v>
+      </c>
+      <c r="D21" s="19">
+        <f>_xll.RtGet("IDN","USD2MD=","BID")</f>
+        <v>5.15</v>
+      </c>
+      <c r="E21" s="19">
+        <f>_xll.RtGet("IDN","USD2MD=","ASK")</f>
+        <v>5.25</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>-346</v>
+      </c>
+      <c r="J21">
+        <v>-326</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21">
+        <v>-338</v>
+      </c>
+      <c r="O21">
+        <v>-334</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>-336</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>-336</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.812205754141238</v>
+      </c>
+      <c r="S21" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0227942458587624</v>
+      </c>
+      <c r="T21" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0827942458587621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <f ca="1">'[1]CNH (2)'!$D14</f>
+        <v>45142</v>
+      </c>
+      <c r="B22" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD3MD=","RIC NAME")</f>
+        <v>USD3MD=</v>
+      </c>
+      <c r="D22" s="19">
+        <f>_xll.RtGet("IDN","USD3MD=","BID")</f>
+        <v>5.25</v>
+      </c>
+      <c r="E22" s="19">
+        <f>_xll.RtGet("IDN","USD3MD=","ASK")</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>-512.75</v>
+      </c>
+      <c r="J22">
+        <v>-492.75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22">
+        <v>-504</v>
+      </c>
+      <c r="O22">
+        <v>-499</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-501.5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>-501.5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8286721504112808</v>
+      </c>
+      <c r="S22" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0063278495887196</v>
+      </c>
+      <c r="T22" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0663278495887192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <f ca="1">'[1]CNH (2)'!$D17</f>
+        <v>45236</v>
+      </c>
+      <c r="B23" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD6MD=","RIC NAME")</f>
+        <v>USD6MD=</v>
+      </c>
+      <c r="D23" s="19">
+        <f>_xll.RtGet("IDN","USD6MD=","BID")</f>
+        <v>5.25</v>
+      </c>
+      <c r="E23" s="19">
+        <f>_xll.RtGet("IDN","USD6MD=","ASK")</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>-1006.4</v>
+      </c>
+      <c r="J23">
+        <v>-953.6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23">
+        <v>-985</v>
+      </c>
+      <c r="O23">
+        <v>-975</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>-980</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>-980</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7340889276373148</v>
+      </c>
+      <c r="S23" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1009110723626856</v>
+      </c>
+      <c r="T23" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.1609110723626852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <f ca="1">'[1]CNH (2)'!$D18</f>
+        <v>45327</v>
+      </c>
+      <c r="B24" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>277</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD9MD=","RIC NAME")</f>
+        <v>USD9MD=</v>
+      </c>
+      <c r="D24" s="19">
+        <f>_xll.RtGet("IDN","USD9MD=","BID")</f>
+        <v>5.25</v>
+      </c>
+      <c r="E24" s="19">
+        <f>_xll.RtGet("IDN","USD9MD=","ASK")</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>-1404</v>
+      </c>
+      <c r="J24">
+        <v>-1316</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24">
+        <v>-1365</v>
+      </c>
+      <c r="O24">
+        <v>-1355</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>-1360</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>-1360</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5477607571470391</v>
+      </c>
+      <c r="S24" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.2872392428529613</v>
+      </c>
+      <c r="T24" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.3472392428529609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <f ca="1">'[1]CNH (2)'!$D19</f>
+        <v>45418</v>
+      </c>
+      <c r="B25" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>_xll.RtGet("IDN","USD1YD=","RIC NAME")</f>
+        <v>USD1YD=</v>
+      </c>
+      <c r="D25" s="19">
+        <f>_xll.RtGet("IDN","USD1YD=","BID")</f>
+        <v>5.25</v>
+      </c>
+      <c r="E25" s="19">
+        <f>_xll.RtGet("IDN","USD1YD=","ASK")</f>
+        <v>5.3500000000000005</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="0"/>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>-1680.6200000000001</v>
+      </c>
+      <c r="J25">
+        <v>-1597.3700000000001</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25">
+        <v>-1660</v>
+      </c>
+      <c r="O25">
+        <v>-1640</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>-1650</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>-1650</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.326674500587544</v>
+      </c>
+      <c r="S25" s="29">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.5083254994124564</v>
+      </c>
+      <c r="T25" s="29">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.568325499412456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L27" s="31">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <f ca="1">$F$29-$A$13</f>
+        <v>-42</v>
+      </c>
+      <c r="C28">
+        <f>$F$30-$F$29</f>
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <f ca="1">$A$21-$F$30</f>
+        <v>62</v>
+      </c>
+      <c r="F28" s="33">
+        <v>44959</v>
+      </c>
+      <c r="G28" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" ref="H28:H34" si="7">(G28-$P$5)*100</f>
+        <v>-36.500000000000021</v>
+      </c>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="29">
+        <f ca="1">S21</f>
+        <v>2.0227942458587624</v>
+      </c>
+      <c r="C29" s="29">
+        <f ca="1">B29+0.5</f>
+        <v>2.5227942458587624</v>
+      </c>
+      <c r="D29" s="29">
+        <f ca="1">C29+0.25</f>
+        <v>2.7727942458587624</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="33">
+        <v>45008</v>
+      </c>
+      <c r="G29" s="28">
+        <f>G28+0.25</f>
+        <v>4.75</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I35" si="8">(H29-H28)/25</f>
+        <v>1</v>
+      </c>
+      <c r="O29" s="29"/>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="32">
+        <f ca="1">SUMPRODUCT(B29:D29,B28:D28)/SUM(B28:D28)</f>
+        <v>3.1115039232781174</v>
+      </c>
+      <c r="F30" s="33">
+        <v>45050</v>
+      </c>
+      <c r="G30" s="28">
+        <f t="shared" ref="G30:G35" si="9">G29+0</f>
+        <v>4.75</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F31" s="33">
+        <v>45092</v>
+      </c>
+      <c r="G31" s="28">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="H31" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <f ca="1">$F$29-$A$13</f>
+        <v>-42</v>
+      </c>
+      <c r="C32">
+        <f>$F$30-$F$29</f>
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <f ca="1">$A$21-$F$30</f>
+        <v>62</v>
+      </c>
+      <c r="F32" s="33">
+        <v>45134</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="H32" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="29">
+        <f ca="1">B29+0.06</f>
+        <v>2.0827942458587625</v>
+      </c>
+      <c r="C33" s="29">
+        <f ca="1">C29+0.06</f>
+        <v>2.5827942458587625</v>
+      </c>
+      <c r="D33" s="29">
+        <f ca="1">D29+0.06</f>
+        <v>2.8327942458587625</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="33">
+        <v>45190</v>
+      </c>
+      <c r="G33" s="28">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <f ca="1">SUMPRODUCT(B33:D33,B32:D32)/SUM(B32:D32)</f>
+        <v>3.1715039232781175</v>
+      </c>
+      <c r="F34" s="33">
+        <v>45232</v>
+      </c>
+      <c r="G34" s="28">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="33">
+        <v>45274</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="H35" s="28">
+        <f>(G35-$R$5)*100</f>
+        <v>-12.999999999999989</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>-5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
@@ -3767,15 +5024,19 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(D1:E1)</f>
-        <v>7.261000000000001</v>
+        <v>6.9375</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE($D$1:$E$1)</f>
+        <v>6.9375</v>
       </c>
       <c r="D1">
         <f>_xll.RtGet("IDN","CNH=","PRIMACT_1")</f>
-        <v>7.2608000000000006</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="E1">
         <f>_xll.RtGet("IDN","CNH=","SEC_ACT_1")</f>
-        <v>7.2612000000000005</v>
+        <v>6.9376000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3784,7 +5045,7 @@
       </c>
       <c r="B2" s="4">
         <f>B1+B5</f>
-        <v>7.2584000000000009</v>
+        <v>6.9369500000000004</v>
       </c>
       <c r="P2">
         <f>(N2+O2)/2</f>
@@ -3818,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
@@ -3828,23 +5089,23 @@
       </c>
       <c r="N4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="O4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
-      </c>
-      <c r="P4">
+        <v>1.7466700000000002</v>
+      </c>
+      <c r="P4" s="25">
         <f>(N4+O4)/2</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="Q4" s="25">
         <f>P4-0.015</f>
-        <v>1.2476400000000003</v>
+        <v>1.7316700000000003</v>
       </c>
       <c r="R4" s="25">
         <f>P4+0.015</f>
-        <v>1.2776400000000001</v>
+        <v>1.7616700000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3853,10 +5114,10 @@
       </c>
       <c r="B5" s="9">
         <f>C5/10000</f>
-        <v>-2.5999999999999999E-3</v>
+        <v>-5.5000000000000003E-4</v>
       </c>
       <c r="C5">
-        <v>-26</v>
+        <v>-5.5</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -3866,23 +5127,23 @@
       </c>
       <c r="N5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),15,8)</f>
-        <v>2.99</v>
+        <v>4.84</v>
       </c>
       <c r="O5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),6,7)</f>
-        <v>3.04</v>
-      </c>
-      <c r="P5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="P5" s="25">
         <f>(N5+O5)/2</f>
-        <v>3.0150000000000001</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="Q5" s="25">
         <f>P5-0.015</f>
-        <v>3</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="R5" s="25">
         <f>P5+0.015</f>
-        <v>3.0300000000000002</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -3899,7 +5160,7 @@
       </c>
       <c r="B7" s="12">
         <f>((B10/100*B4/B11+1)*B2/B1-1)*B8/B4*100</f>
-        <v>1.1773776929585114</v>
+        <v>2.010560252253768</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -3928,7 +5189,7 @@
       </c>
       <c r="N9" s="22">
         <f>E10</f>
-        <v>1.8415409132941147</v>
+        <v>2.8540540540540542</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -3938,15 +5199,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17">
-        <v>3.02</v>
+        <f>P5</f>
+        <v>4.8650000000000002</v>
       </c>
       <c r="D10" s="20">
         <f>(B10-B7)</f>
-        <v>1.8426223070414887</v>
+        <v>2.8544397477462322</v>
       </c>
       <c r="E10">
         <f>-B5*(360/B4)/B1*100</f>
-        <v>1.8415409132941147</v>
+        <v>2.8540540540540542</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -3956,16 +5218,16 @@
       </c>
       <c r="N10" s="22">
         <f>Q5-R4</f>
-        <v>1.7223599999999999</v>
+        <v>3.0883300000000005</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="str">
         <f>IF(N10-$N$9&gt;0,"正","負")</f>
-        <v>負</v>
+        <v>正</v>
       </c>
       <c r="R10">
         <f>Q5-$N$9-0.015</f>
-        <v>1.1434590867058854</v>
+        <v>1.9809459459459464</v>
       </c>
       <c r="S10" t="s">
         <v>48</v>
@@ -3986,16 +5248,16 @@
       </c>
       <c r="N11" s="26">
         <f>R5-Q4</f>
-        <v>1.7823599999999999</v>
+        <v>3.1483299999999996</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="str">
         <f>IF(N9-N11&gt;0,"正","負")</f>
-        <v>正</v>
+        <v>負</v>
       </c>
       <c r="R11">
         <f>R5-$N$9+0.015</f>
-        <v>1.2034590867058854</v>
+        <v>2.0409459459459458</v>
       </c>
       <c r="S11" t="s">
         <v>47</v>
@@ -4003,14 +5265,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="24"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f ca="1">'[1]CNH (2)'!$F$7</f>
-        <v>44859</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -4025,10 +5286,10 @@
       </c>
       <c r="F15" s="18"/>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -4038,26 +5299,26 @@
       </c>
       <c r="D16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","BID")</f>
-        <v>3.04</v>
+        <v>4.75</v>
       </c>
       <c r="E16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" ref="F16:F25" si="0">(D16+E16)/2</f>
-        <v>3.14</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <f>_xll.RData(H16:H25,"BID","RTFEED:IDN")</f>
-        <v>-11.5</v>
+        <v>-9.9</v>
       </c>
       <c r="J16">
         <f>_xll.RData(H16:H25,"ASK","RTFEED:IDN")</f>
-        <v>-7.5</v>
+        <v>-3.4</v>
       </c>
       <c r="N16" t="s">
         <v>45</v>
@@ -4069,43 +5330,46 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="S16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" s="18" t="str">
         <f>_xll.RtGet("IDN","USDTND=","RIC NAME")</f>
         <v>USDTND=</v>
       </c>
       <c r="D17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","BID")</f>
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="E17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.99</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>-4</v>
+        <v>-30</v>
       </c>
       <c r="J17">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="L17" t="s">
         <v>38</v>
@@ -4116,25 +5380,25 @@
       </c>
       <c r="N17">
         <f>_xll.RData(L17:L25,"PRIMACT_1","RTFEED:IDN")</f>
-        <v>-3.2</v>
+        <v>-6</v>
       </c>
       <c r="O17">
         <f>_xll.RData(L17:L25,"SEC_ACT_1","RTFEED:IDN")</f>
-        <v>-2.7</v>
+        <v>-5</v>
       </c>
       <c r="P17">
         <f>AVERAGE(N17:O17)</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
       <c r="Q17">
         <f>P17</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$10</f>
-        <v>44866</v>
+        <f ca="1">'[1]CNH (2)'!$D10</f>
+        <v>45057</v>
       </c>
       <c r="B18" s="27">
         <f ca="1">A18-$A$13</f>
@@ -4146,62 +5410,62 @@
       </c>
       <c r="D18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","BID")</f>
-        <v>3.12</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="E18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","ASK")</f>
-        <v>3.24</v>
+        <v>4.95</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>3.18</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18">
-        <v>-23</v>
+        <v>-44</v>
       </c>
       <c r="J18">
-        <v>-13</v>
+        <v>-34</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N18">
-        <v>-19</v>
+        <v>-40</v>
       </c>
       <c r="O18">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="P18">
         <f t="shared" ref="P18:P25" si="1">AVERAGE(N18:O18)</f>
-        <v>-18</v>
+        <v>-39</v>
       </c>
       <c r="Q18">
         <f t="shared" ref="Q18:Q25" si="2">P18</f>
-        <v>-18</v>
+        <v>-39</v>
       </c>
       <c r="R18">
         <f ca="1">-Q18/10000*(360/B18)/$B$1*100</f>
-        <v>1.2749129399728487</v>
+        <v>2.891119691119691</v>
       </c>
       <c r="S18" s="29">
         <f ca="1">$Q$5-R18-0.015</f>
-        <v>1.7100870600271514</v>
+        <v>1.9438803088803096</v>
       </c>
       <c r="T18" s="29">
         <f ca="1">$R$5-R18+0.015</f>
-        <v>1.7700870600271514</v>
+        <v>2.003880308880309</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$11</f>
-        <v>44873</v>
+        <f ca="1">'[1]CNH (2)'!$D11</f>
+        <v>45064</v>
       </c>
       <c r="B19" s="27">
         <f t="shared" ref="B19:B25" ca="1" si="3">A19-$A$13</f>
@@ -4213,66 +5477,66 @@
       </c>
       <c r="D19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","BID")</f>
-        <v>3.4</v>
+        <v>4.95</v>
       </c>
       <c r="E19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","ASK")</f>
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
-        <v>-43.25</v>
+        <v>-82.27</v>
       </c>
       <c r="J19">
-        <v>-33.25</v>
+        <v>-72.27</v>
       </c>
       <c r="L19" t="s">
         <v>39</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N19">
-        <v>-40</v>
+        <v>-78</v>
       </c>
       <c r="O19">
-        <v>-37</v>
+        <v>-75</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>-38.5</v>
+        <v>-76.5</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>-38.5</v>
+        <v>-76.5</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19:R25" ca="1" si="4">-Q19/10000*(360/B19)/$B$1*100</f>
-        <v>1.3634485608042968</v>
+        <v>2.8355212355212354</v>
       </c>
       <c r="S19" s="29">
         <f t="shared" ref="S19:S25" ca="1" si="5">$Q$5-R19-0.015</f>
-        <v>1.6215514391957033</v>
+        <v>1.9994787644787653</v>
       </c>
       <c r="T19" s="29">
         <f t="shared" ref="T19:T25" ca="1" si="6">$R$5-R19+0.015</f>
-        <v>1.6815514391957034</v>
+        <v>2.0594787644787647</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$12</f>
-        <v>44890</v>
+        <f ca="1">'[1]CNH (2)'!$D12</f>
+        <v>45082</v>
       </c>
       <c r="B20" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1MD=","RIC NAME")</f>
@@ -4280,66 +5544,66 @@
       </c>
       <c r="D20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","BID")</f>
-        <v>3.74</v>
+        <v>5.05</v>
       </c>
       <c r="E20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","ASK")</f>
-        <v>3.99</v>
+        <v>5.15</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>3.8650000000000002</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
-        <v>-106</v>
+        <v>-178</v>
       </c>
       <c r="J20">
-        <v>-96</v>
+        <v>-168</v>
       </c>
       <c r="L20" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="N20">
-        <v>-104</v>
+        <v>-174</v>
       </c>
       <c r="O20">
-        <v>-100</v>
+        <v>-172</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>-102</v>
+        <v>-173</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>-102</v>
+        <v>-173</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6313402135136454</v>
+        <v>2.8054054054054052</v>
       </c>
       <c r="S20" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3536597864863547</v>
+        <v>2.0295945945945952</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4136597864863547</v>
+        <v>2.0895945945945948</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$13</f>
-        <v>44922</v>
+        <f ca="1">'[1]CNH (2)'!$D13</f>
+        <v>45112</v>
       </c>
       <c r="B21" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="str">
         <f>_xll.RtGet("IDN","USD2MD=","RIC NAME")</f>
@@ -4347,66 +5611,66 @@
       </c>
       <c r="D21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","BID")</f>
-        <v>3.89</v>
+        <v>5.15</v>
       </c>
       <c r="E21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","ASK")</f>
-        <v>4.1399999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
-        <v>4.0149999999999997</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
-        <v>-239</v>
+        <v>-346</v>
       </c>
       <c r="J21">
-        <v>-219</v>
+        <v>-326</v>
       </c>
       <c r="L21" t="s">
         <v>41</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N21">
-        <v>-234</v>
+        <v>-338</v>
       </c>
       <c r="O21">
-        <v>-230</v>
+        <v>-334</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>-232</v>
+        <v>-336</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>-232</v>
+        <v>-336</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8258012473685241</v>
+        <v>2.812205754141238</v>
       </c>
       <c r="S21" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.159198752631476</v>
+        <v>2.0227942458587624</v>
       </c>
       <c r="T21" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.219198752631476</v>
+        <v>2.0827942458587621</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$14</f>
-        <v>44956</v>
+        <f ca="1">'[1]CNH (2)'!$D14</f>
+        <v>45142</v>
       </c>
       <c r="B22" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="str">
         <f>_xll.RtGet("IDN","USD3MD=","RIC NAME")</f>
@@ -4414,66 +5678,66 @@
       </c>
       <c r="D22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","BID")</f>
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","ASK")</f>
-        <v>4.8</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="0"/>
-        <v>4.6749999999999998</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
-        <v>-393</v>
+        <v>-512.75</v>
       </c>
       <c r="J22">
-        <v>-368</v>
+        <v>-492.75</v>
       </c>
       <c r="L22" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N22">
-        <v>-385</v>
+        <v>-504</v>
       </c>
       <c r="O22">
-        <v>-380</v>
+        <v>-499</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>-382.5</v>
+        <v>-501.5</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>-382.5</v>
+        <v>-501.5</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9550855651645493</v>
+        <v>2.8286721504112808</v>
       </c>
       <c r="S22" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0299144348354508</v>
+        <v>2.0063278495887196</v>
       </c>
       <c r="T22" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0899144348354508</v>
+        <v>2.0663278495887192</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$17</f>
-        <v>45041</v>
+        <f ca="1">'[1]CNH (2)'!$D17</f>
+        <v>45236</v>
       </c>
       <c r="B23" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C23" s="18" t="str">
         <f>_xll.RtGet("IDN","USD6MD=","RIC NAME")</f>
@@ -4481,66 +5745,66 @@
       </c>
       <c r="D23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","BID")</f>
-        <v>4.8899999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="E23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","ASK")</f>
-        <v>5.14</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>5.0149999999999997</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23">
-        <v>-860</v>
+        <v>-1006.4</v>
       </c>
       <c r="J23">
-        <v>-800</v>
+        <v>-953.6</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N23">
-        <v>-840</v>
+        <v>-985</v>
       </c>
       <c r="O23">
-        <v>-830</v>
+        <v>-975</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>-835</v>
+        <v>-980</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>-835</v>
+        <v>-980</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2746844121310446</v>
+        <v>2.7340889276373148</v>
       </c>
       <c r="S23" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71031558786895543</v>
+        <v>2.1009110723626856</v>
       </c>
       <c r="T23" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77031558786895571</v>
+        <v>2.1609110723626852</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$18</f>
-        <v>45132</v>
+        <f ca="1">'[1]CNH (2)'!$D18</f>
+        <v>45327</v>
       </c>
       <c r="B24" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C24" s="18" t="str">
         <f>_xll.RtGet("IDN","USD9MD=","RIC NAME")</f>
@@ -4548,11 +5812,11 @@
       </c>
       <c r="D24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","BID")</f>
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="E24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","ASK")</f>
-        <v>5.4</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
@@ -4562,52 +5826,52 @@
         <v>21</v>
       </c>
       <c r="I24">
-        <v>-1305</v>
+        <v>-1404</v>
       </c>
       <c r="J24">
-        <v>-1255</v>
+        <v>-1316</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N24">
-        <v>-1293</v>
+        <v>-1365</v>
       </c>
       <c r="O24">
-        <v>-1283</v>
+        <v>-1355</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>-1288</v>
+        <v>-1360</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>-1288</v>
+        <v>-1360</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3391565052493295</v>
+        <v>2.5477607571470391</v>
       </c>
       <c r="S24" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64584349475067049</v>
+        <v>2.2872392428529613</v>
       </c>
       <c r="T24" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70584349475067076</v>
+        <v>2.3472392428529609</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$19</f>
-        <v>45224</v>
+        <f ca="1">'[1]CNH (2)'!$D19</f>
+        <v>45418</v>
       </c>
       <c r="B25" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C25" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1YD=","RIC NAME")</f>
@@ -4615,161 +5879,152 @@
       </c>
       <c r="D25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","BID")</f>
-        <v>5.47</v>
+        <v>5.25</v>
       </c>
       <c r="E25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","ASK")</f>
-        <v>5.54</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>5.5049999999999999</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25">
-        <v>-1715</v>
+        <v>-1680.6200000000001</v>
       </c>
       <c r="J25">
-        <v>-1655</v>
+        <v>-1597.3700000000001</v>
       </c>
       <c r="L25" t="s">
         <v>52</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="N25">
-        <v>-1700</v>
+        <v>-1660</v>
       </c>
       <c r="O25">
-        <v>-1680</v>
+        <v>-1640</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>-1690</v>
+        <v>-1650</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>-1690</v>
+        <v>-1650</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="4"/>
-        <v>2.295619494654308</v>
+        <v>2.326674500587544</v>
       </c>
       <c r="S25" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68938050534569195</v>
+        <v>2.5083254994124564</v>
       </c>
       <c r="T25" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74938050534569223</v>
+        <v>2.568325499412456</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L27" s="31">
-        <v>44907</v>
-      </c>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
+        <f ca="1">$E$29-$A$13</f>
+        <v>-42</v>
       </c>
       <c r="C28">
-        <f>$E$29-$E$28</f>
+        <f>$E$30-$E$29</f>
         <v>42</v>
       </c>
       <c r="D28">
-        <f ca="1">$A$21-$E$29</f>
-        <v>11</v>
-      </c>
-      <c r="E28" s="30">
-        <v>44869</v>
+        <f ca="1">$A$22-$E$30</f>
+        <v>92</v>
+      </c>
+      <c r="E28" s="33">
+        <v>44959</v>
       </c>
       <c r="F28" s="28">
-        <f>P5+0.75</f>
-        <v>3.7650000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="G28" s="28">
-        <f>(F28-$P$5)*100</f>
-        <v>75</v>
-      </c>
-      <c r="H28">
-        <f>G28/25</f>
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
+        <f t="shared" ref="G28:G34" si="7">(F28-$P$5)*100</f>
+        <v>-36.500000000000021</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B29" s="29">
-        <f ca="1">S21</f>
-        <v>1.159198752631476</v>
+        <f ca="1">S22</f>
+        <v>2.0063278495887196</v>
       </c>
       <c r="C29" s="29">
-        <f ca="1">B29+0.75</f>
-        <v>1.909198752631476</v>
+        <f ca="1">B29+0.5</f>
+        <v>2.5063278495887196</v>
       </c>
       <c r="D29" s="29">
-        <f ca="1">C29+0.7</f>
-        <v>2.6091987526314759</v>
-      </c>
-      <c r="E29" s="30">
-        <v>44911</v>
+        <f ca="1">C29+0.25</f>
+        <v>2.7563278495887196</v>
+      </c>
+      <c r="E29" s="33">
+        <v>45008</v>
       </c>
       <c r="F29" s="28">
-        <f>F28+0.75</f>
-        <v>4.5150000000000006</v>
+        <f>F28+0.25</f>
+        <v>4.75</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" ref="G29:G36" si="7">(F29-$P$5)*100</f>
-        <v>150.00000000000006</v>
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H29">
-        <f>(G29-G28)/25</f>
-        <v>3.0000000000000022</v>
+        <f t="shared" ref="H29:H35" si="8">(G29-G28)/25</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="32">
         <f ca="1">SUMPRODUCT(B29:D29,B28:D28)/SUM(B28:D28)</f>
-        <v>1.9123733558060791</v>
-      </c>
-      <c r="E30" s="30">
-        <v>44960</v>
+        <v>2.9845887191539369</v>
+      </c>
+      <c r="E30" s="33">
+        <v>45050</v>
       </c>
       <c r="F30" s="28">
-        <v>4.8499999999999996</v>
+        <f t="shared" ref="F30:F35" si="9">F29+0</f>
+        <v>4.75</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H36" si="8">(G30-G29)/25</f>
-        <v>1.3399999999999954</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="30">
-        <v>45009</v>
+      <c r="E31" s="33">
+        <v>45092</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" ref="F31:F37" si="9">F30+0</f>
-        <v>4.8499999999999996</v>
+        <f t="shared" si="9"/>
+        <v>4.75</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H31">
         <f t="shared" si="8"/>
@@ -4778,30 +6033,30 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
+        <f ca="1">$E$29-$A$13</f>
+        <v>-42</v>
       </c>
       <c r="C32">
-        <f>$E$29-$E$28</f>
+        <f>$E$30-$E$29</f>
         <v>42</v>
       </c>
       <c r="D32">
-        <f ca="1">$A$21-$E$29</f>
-        <v>11</v>
-      </c>
-      <c r="E32" s="30">
-        <v>45051</v>
+        <f ca="1">$A$22-$E$30</f>
+        <v>92</v>
+      </c>
+      <c r="E32" s="33">
+        <v>45134</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H32">
         <f t="shared" si="8"/>
@@ -4810,30 +6065,30 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B33" s="29">
-        <f ca="1">T21</f>
-        <v>1.219198752631476</v>
+        <f ca="1">B29+0.06</f>
+        <v>2.0663278495887196</v>
       </c>
       <c r="C33" s="29">
-        <f ca="1">B33+0.75</f>
-        <v>1.969198752631476</v>
+        <f ca="1">C29+0.06</f>
+        <v>2.5663278495887196</v>
       </c>
       <c r="D33" s="29">
-        <f ca="1">C33+0.7</f>
-        <v>2.669198752631476</v>
-      </c>
-      <c r="E33" s="30">
-        <v>45093</v>
+        <f ca="1">D29+0.06</f>
+        <v>2.8163278495887196</v>
+      </c>
+      <c r="E33" s="33">
+        <v>45190</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H33">
         <f t="shared" si="8"/>
@@ -4843,18 +6098,18 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="32">
         <f ca="1">SUMPRODUCT(B33:D33,B32:D32)/SUM(B32:D32)</f>
-        <v>1.9723733558060792</v>
-      </c>
-      <c r="E34" s="30">
-        <v>45135</v>
+        <v>3.0445887191539369</v>
+      </c>
+      <c r="E34" s="33">
+        <v>45232</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
+        <v>-11.500000000000021</v>
       </c>
       <c r="H34">
         <f t="shared" si="8"/>
@@ -4862,38 +6117,20 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="30">
-        <v>45191</v>
+      <c r="E35" s="33">
+        <v>45274</v>
       </c>
       <c r="F35" s="28">
-        <v>4.8</v>
+        <f t="shared" si="9"/>
+        <v>4.75</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" si="7"/>
-        <v>178.49999999999997</v>
+        <f>(F35-$R$5)*100</f>
+        <v>-12.999999999999989</v>
       </c>
       <c r="H35">
         <f t="shared" si="8"/>
-        <v>-0.19999999999999887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30">
-        <v>45233</v>
-      </c>
-      <c r="F36" s="28">
-        <v>4.7</v>
-      </c>
-      <c r="G36" s="28">
-        <f t="shared" si="7"/>
-        <v>168.5</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>-0.39999999999999886</v>
+        <v>-5.9999999999998721E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4903,22 +6140,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.25" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -4927,15 +6168,19 @@
       </c>
       <c r="B1" s="2">
         <f>AVERAGE(D1:E1)</f>
-        <v>7.261000000000001</v>
+        <v>6.9375</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGE($D$1:$E$1)</f>
+        <v>6.9375</v>
       </c>
       <c r="D1">
         <f>_xll.RtGet("IDN","CNH=","PRIMACT_1")</f>
-        <v>7.2608000000000006</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="E1">
         <f>_xll.RtGet("IDN","CNH=","SEC_ACT_1")</f>
-        <v>7.2612000000000005</v>
+        <v>6.9376000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -4944,7 +6189,7 @@
       </c>
       <c r="B2" s="4">
         <f>B1+B5</f>
-        <v>7.2592000000000008</v>
+        <v>6.9359000000000002</v>
       </c>
       <c r="P2">
         <f>(N2+O2)/2</f>
@@ -4978,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>49</v>
@@ -4988,23 +6233,23 @@
       </c>
       <c r="N4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="O4" s="25">
         <f>_xll.RtGet("IDN","HICNHONDF=","PRIMACT_1")</f>
-        <v>1.2626400000000002</v>
-      </c>
-      <c r="P4">
+        <v>1.7466700000000002</v>
+      </c>
+      <c r="P4" s="25">
         <f>(N4+O4)/2</f>
-        <v>1.2626400000000002</v>
+        <v>1.7466700000000002</v>
       </c>
       <c r="Q4" s="25">
         <f>P4-0.015</f>
-        <v>1.2476400000000003</v>
+        <v>1.7316700000000003</v>
       </c>
       <c r="R4" s="25">
         <f>P4+0.015</f>
-        <v>1.2776400000000001</v>
+        <v>1.7616700000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -5013,10 +6258,10 @@
       </c>
       <c r="B5" s="9">
         <f>C5/10000</f>
-        <v>-1.8E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="C5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="K5" t="s">
         <v>50</v>
@@ -5026,23 +6271,23 @@
       </c>
       <c r="N5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),15,8)</f>
-        <v>2.99</v>
+        <v>4.84</v>
       </c>
       <c r="O5" s="25">
         <f>_xll.AdConvert(_xll.RtGet("IDN","TAIFX3","ROW80_8"),6,7)</f>
-        <v>3.04</v>
-      </c>
-      <c r="P5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="P5" s="25">
         <f>(N5+O5)/2</f>
-        <v>3.0150000000000001</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="Q5" s="25">
         <f>P5-0.015</f>
-        <v>3</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="R5" s="25">
         <f>P5+0.015</f>
-        <v>3.0300000000000002</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -5059,7 +6304,7 @@
       </c>
       <c r="B7" s="12">
         <f>((B10/100*B4/B11+1)*B2/B1-1)*B8/B4*100</f>
-        <v>1.7743309658244351</v>
+        <v>2.0963104144167133</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -5088,7 +6333,7 @@
       </c>
       <c r="N9" s="22">
         <f>E10</f>
-        <v>1.2749129399728487</v>
+        <v>2.7675675675675677</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -5098,15 +6343,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17">
-        <v>3.05</v>
+        <f>P5</f>
+        <v>4.8650000000000002</v>
       </c>
       <c r="D10" s="20">
         <f>(B10-B7)</f>
-        <v>1.2756690341755648</v>
+        <v>2.7686895855832869</v>
       </c>
       <c r="E10">
         <f>-B5*(360/B4)/B1*100</f>
-        <v>1.2749129399728487</v>
+        <v>2.7675675675675677</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -5116,16 +6362,16 @@
       </c>
       <c r="N10" s="22">
         <f>Q5-R4</f>
-        <v>1.7223599999999999</v>
+        <v>3.0883300000000005</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22" t="str">
         <f>IF(N10-$N$9&gt;0,"正","負")</f>
         <v>正</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="28">
         <f>Q5-$N$9-0.015</f>
-        <v>1.7100870600271514</v>
+        <v>2.0674324324324327</v>
       </c>
       <c r="S10" t="s">
         <v>48</v>
@@ -5146,16 +6392,16 @@
       </c>
       <c r="N11" s="26">
         <f>R5-Q4</f>
-        <v>1.7823599999999999</v>
+        <v>3.1483299999999996</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="str">
         <f>IF(N9-N11&gt;0,"正","負")</f>
         <v>負</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="28">
         <f>R5-$N$9+0.015</f>
-        <v>1.7700870600271514</v>
+        <v>2.1274324324324323</v>
       </c>
       <c r="S11" t="s">
         <v>47</v>
@@ -5170,7 +6416,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f ca="1">'[1]CNH (2)'!$F$7</f>
-        <v>44859</v>
+        <v>45050</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -5185,10 +6431,10 @@
       </c>
       <c r="F15" s="18"/>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -5198,26 +6444,26 @@
       </c>
       <c r="D16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","BID")</f>
-        <v>3.04</v>
+        <v>4.75</v>
       </c>
       <c r="E16" s="19">
         <f>_xll.RtGet("IDN","USDOND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" ref="F16:F25" si="0">(D16+E16)/2</f>
-        <v>3.14</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
         <f>_xll.RData(H16:H25,"BID","RTFEED:IDN")</f>
-        <v>-11.5</v>
+        <v>-9.9</v>
       </c>
       <c r="J16">
         <f>_xll.RData(H16:H25,"ASK","RTFEED:IDN")</f>
-        <v>-7.5</v>
+        <v>-3.4</v>
       </c>
       <c r="N16" t="s">
         <v>45</v>
@@ -5229,43 +6475,46 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="S16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17" s="18" t="str">
         <f>_xll.RtGet("IDN","USDTND=","RIC NAME")</f>
         <v>USDTND=</v>
       </c>
       <c r="D17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","BID")</f>
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="E17" s="19">
         <f>_xll.RtGet("IDN","USDTND=","ASK")</f>
-        <v>3.24</v>
+        <v>4.99</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17">
-        <v>-4</v>
+        <v>-30</v>
       </c>
       <c r="J17">
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="L17" t="s">
         <v>38</v>
@@ -5276,25 +6525,25 @@
       </c>
       <c r="N17">
         <f>_xll.RData(L17:L25,"PRIMACT_1","RTFEED:IDN")</f>
-        <v>-3.2</v>
+        <v>-6</v>
       </c>
       <c r="O17">
         <f>_xll.RData(L17:L25,"SEC_ACT_1","RTFEED:IDN")</f>
-        <v>-2.7</v>
+        <v>-5</v>
       </c>
       <c r="P17">
         <f>AVERAGE(N17:O17)</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
       <c r="Q17">
         <f>P17</f>
-        <v>-2.95</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$10</f>
-        <v>44866</v>
+        <f ca="1">'[1]CNH (2)'!$D10</f>
+        <v>45057</v>
       </c>
       <c r="B18" s="27">
         <f ca="1">A18-$A$13</f>
@@ -5306,62 +6555,62 @@
       </c>
       <c r="D18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","BID")</f>
-        <v>3.12</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="E18" s="19">
         <f>_xll.RtGet("IDN","USDSWD=","ASK")</f>
-        <v>3.24</v>
+        <v>4.95</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>3.18</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18">
-        <v>-23</v>
+        <v>-44</v>
       </c>
       <c r="J18">
-        <v>-13</v>
+        <v>-34</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="N18">
-        <v>-19</v>
+        <v>-40</v>
       </c>
       <c r="O18">
-        <v>-17</v>
+        <v>-38</v>
       </c>
       <c r="P18">
         <f t="shared" ref="P18:P25" si="1">AVERAGE(N18:O18)</f>
-        <v>-18</v>
+        <v>-39</v>
       </c>
       <c r="Q18">
         <f t="shared" ref="Q18:Q25" si="2">P18</f>
-        <v>-18</v>
-      </c>
-      <c r="R18">
+        <v>-39</v>
+      </c>
+      <c r="R18" s="25">
         <f ca="1">-Q18/10000*(360/B18)/$B$1*100</f>
-        <v>1.2749129399728487</v>
+        <v>2.891119691119691</v>
       </c>
       <c r="S18" s="29">
         <f ca="1">$Q$5-R18-0.015</f>
-        <v>1.7100870600271514</v>
+        <v>1.9438803088803096</v>
       </c>
       <c r="T18" s="29">
         <f ca="1">$R$5-R18+0.015</f>
-        <v>1.7700870600271514</v>
+        <v>2.003880308880309</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$11</f>
-        <v>44873</v>
+        <f ca="1">'[1]CNH (2)'!$D11</f>
+        <v>45064</v>
       </c>
       <c r="B19" s="27">
         <f t="shared" ref="B19:B25" ca="1" si="3">A19-$A$13</f>
@@ -5373,66 +6622,66 @@
       </c>
       <c r="D19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","BID")</f>
-        <v>3.4</v>
+        <v>4.95</v>
       </c>
       <c r="E19" s="19">
         <f>_xll.RtGet("IDN","USD2WD=","ASK")</f>
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>16</v>
       </c>
       <c r="I19">
-        <v>-43.25</v>
+        <v>-82.27</v>
       </c>
       <c r="J19">
-        <v>-33.25</v>
+        <v>-72.27</v>
       </c>
       <c r="L19" t="s">
         <v>39</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N19">
-        <v>-40</v>
+        <v>-78</v>
       </c>
       <c r="O19">
-        <v>-37</v>
+        <v>-75</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>-38.5</v>
+        <v>-76.5</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>-38.5</v>
-      </c>
-      <c r="R19">
+        <v>-76.5</v>
+      </c>
+      <c r="R19" s="25">
         <f t="shared" ref="R19:R25" ca="1" si="4">-Q19/10000*(360/B19)/$B$1*100</f>
-        <v>1.3634485608042968</v>
+        <v>2.8355212355212354</v>
       </c>
       <c r="S19" s="29">
         <f t="shared" ref="S19:S25" ca="1" si="5">$Q$5-R19-0.015</f>
-        <v>1.6215514391957033</v>
+        <v>1.9994787644787653</v>
       </c>
       <c r="T19" s="29">
         <f t="shared" ref="T19:T25" ca="1" si="6">$R$5-R19+0.015</f>
-        <v>1.6815514391957034</v>
+        <v>2.0594787644787647</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$12</f>
-        <v>44890</v>
+        <f ca="1">'[1]CNH (2)'!$D12</f>
+        <v>45082</v>
       </c>
       <c r="B20" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1MD=","RIC NAME")</f>
@@ -5440,66 +6689,66 @@
       </c>
       <c r="D20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","BID")</f>
-        <v>3.74</v>
+        <v>5.05</v>
       </c>
       <c r="E20" s="19">
         <f>_xll.RtGet("IDN","USD1MD=","ASK")</f>
-        <v>3.99</v>
+        <v>5.15</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
-        <v>3.8650000000000002</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
-        <v>-106</v>
+        <v>-178</v>
       </c>
       <c r="J20">
-        <v>-96</v>
+        <v>-168</v>
       </c>
       <c r="L20" t="s">
         <v>40</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="N20">
-        <v>-104</v>
+        <v>-174</v>
       </c>
       <c r="O20">
-        <v>-100</v>
+        <v>-172</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>-102</v>
+        <v>-173</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>-102</v>
-      </c>
-      <c r="R20">
+        <v>-173</v>
+      </c>
+      <c r="R20" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6313402135136454</v>
+        <v>2.8054054054054052</v>
       </c>
       <c r="S20" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3536597864863547</v>
+        <v>2.0295945945945952</v>
       </c>
       <c r="T20" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4136597864863547</v>
+        <v>2.0895945945945948</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$13</f>
-        <v>44922</v>
+        <f ca="1">'[1]CNH (2)'!$D13</f>
+        <v>45112</v>
       </c>
       <c r="B21" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="str">
         <f>_xll.RtGet("IDN","USD2MD=","RIC NAME")</f>
@@ -5507,66 +6756,66 @@
       </c>
       <c r="D21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","BID")</f>
-        <v>3.89</v>
+        <v>5.15</v>
       </c>
       <c r="E21" s="19">
         <f>_xll.RtGet("IDN","USD2MD=","ASK")</f>
-        <v>4.1399999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
-        <v>4.0149999999999997</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21">
-        <v>-239</v>
+        <v>-346</v>
       </c>
       <c r="J21">
-        <v>-219</v>
+        <v>-326</v>
       </c>
       <c r="L21" t="s">
         <v>41</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N21">
-        <v>-234</v>
+        <v>-338</v>
       </c>
       <c r="O21">
-        <v>-230</v>
+        <v>-334</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>-232</v>
+        <v>-336</v>
       </c>
       <c r="Q21">
         <f t="shared" si="2"/>
-        <v>-232</v>
-      </c>
-      <c r="R21">
+        <v>-336</v>
+      </c>
+      <c r="R21" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8258012473685241</v>
+        <v>2.812205754141238</v>
       </c>
       <c r="S21" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.159198752631476</v>
+        <v>2.0227942458587624</v>
       </c>
       <c r="T21" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.219198752631476</v>
+        <v>2.0827942458587621</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$14</f>
-        <v>44956</v>
+        <f ca="1">'[1]CNH (2)'!$D14</f>
+        <v>45142</v>
       </c>
       <c r="B22" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="str">
         <f>_xll.RtGet("IDN","USD3MD=","RIC NAME")</f>
@@ -5574,66 +6823,66 @@
       </c>
       <c r="D22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","BID")</f>
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="19">
         <f>_xll.RtGet("IDN","USD3MD=","ASK")</f>
-        <v>4.8</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="0"/>
-        <v>4.6749999999999998</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
-        <v>-393</v>
+        <v>-512.75</v>
       </c>
       <c r="J22">
-        <v>-368</v>
+        <v>-492.75</v>
       </c>
       <c r="L22" t="s">
         <v>42</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N22">
-        <v>-385</v>
+        <v>-504</v>
       </c>
       <c r="O22">
-        <v>-380</v>
+        <v>-499</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>-382.5</v>
+        <v>-501.5</v>
       </c>
       <c r="Q22">
         <f t="shared" si="2"/>
-        <v>-382.5</v>
-      </c>
-      <c r="R22">
+        <v>-501.5</v>
+      </c>
+      <c r="R22" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9550855651645493</v>
+        <v>2.8286721504112808</v>
       </c>
       <c r="S22" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0299144348354508</v>
+        <v>2.0063278495887196</v>
       </c>
       <c r="T22" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0899144348354508</v>
+        <v>2.0663278495887192</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$17</f>
-        <v>45041</v>
+        <f ca="1">'[1]CNH (2)'!$D17</f>
+        <v>45236</v>
       </c>
       <c r="B23" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C23" s="18" t="str">
         <f>_xll.RtGet("IDN","USD6MD=","RIC NAME")</f>
@@ -5641,66 +6890,66 @@
       </c>
       <c r="D23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","BID")</f>
-        <v>4.8899999999999997</v>
+        <v>5.25</v>
       </c>
       <c r="E23" s="19">
         <f>_xll.RtGet("IDN","USD6MD=","ASK")</f>
-        <v>5.14</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
-        <v>5.0149999999999997</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
       <c r="I23">
-        <v>-860</v>
+        <v>-1006.4</v>
       </c>
       <c r="J23">
-        <v>-800</v>
+        <v>-953.6</v>
       </c>
       <c r="L23" t="s">
         <v>43</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N23">
-        <v>-840</v>
+        <v>-985</v>
       </c>
       <c r="O23">
-        <v>-830</v>
+        <v>-975</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>-835</v>
+        <v>-980</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>-835</v>
-      </c>
-      <c r="R23">
+        <v>-980</v>
+      </c>
+      <c r="R23" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2746844121310446</v>
+        <v>2.7340889276373148</v>
       </c>
       <c r="S23" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71031558786895543</v>
+        <v>2.1009110723626856</v>
       </c>
       <c r="T23" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77031558786895571</v>
+        <v>2.1609110723626852</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$18</f>
-        <v>45132</v>
+        <f ca="1">'[1]CNH (2)'!$D18</f>
+        <v>45327</v>
       </c>
       <c r="B24" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C24" s="18" t="str">
         <f>_xll.RtGet("IDN","USD9MD=","RIC NAME")</f>
@@ -5708,11 +6957,11 @@
       </c>
       <c r="D24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","BID")</f>
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="E24" s="19">
         <f>_xll.RtGet("IDN","USD9MD=","ASK")</f>
-        <v>5.4</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
@@ -5722,52 +6971,52 @@
         <v>21</v>
       </c>
       <c r="I24">
-        <v>-1305</v>
+        <v>-1404</v>
       </c>
       <c r="J24">
-        <v>-1255</v>
+        <v>-1316</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N24">
-        <v>-1293</v>
+        <v>-1365</v>
       </c>
       <c r="O24">
-        <v>-1283</v>
+        <v>-1355</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>-1288</v>
+        <v>-1360</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>-1288</v>
-      </c>
-      <c r="R24">
+        <v>-1360</v>
+      </c>
+      <c r="R24" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3391565052493295</v>
+        <v>2.5477607571470391</v>
       </c>
       <c r="S24" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64584349475067049</v>
+        <v>2.2872392428529613</v>
       </c>
       <c r="T24" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70584349475067076</v>
+        <v>2.3472392428529609</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <f ca="1">'[1]CNH (2)'!$D$19</f>
-        <v>45224</v>
+        <f ca="1">'[1]CNH (2)'!$D19</f>
+        <v>45418</v>
       </c>
       <c r="B25" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C25" s="18" t="str">
         <f>_xll.RtGet("IDN","USD1YD=","RIC NAME")</f>
@@ -5775,56 +7024,56 @@
       </c>
       <c r="D25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","BID")</f>
-        <v>5.47</v>
+        <v>5.25</v>
       </c>
       <c r="E25" s="19">
         <f>_xll.RtGet("IDN","USD1YD=","ASK")</f>
-        <v>5.54</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
-        <v>5.5049999999999999</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25">
-        <v>-1715</v>
+        <v>-1680.6200000000001</v>
       </c>
       <c r="J25">
-        <v>-1655</v>
+        <v>-1597.3700000000001</v>
       </c>
       <c r="L25" t="s">
         <v>52</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="N25">
-        <v>-1700</v>
+        <v>-1660</v>
       </c>
       <c r="O25">
-        <v>-1680</v>
+        <v>-1640</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>-1690</v>
+        <v>-1650</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>-1690</v>
-      </c>
-      <c r="R25">
+        <v>-1650</v>
+      </c>
+      <c r="R25" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>2.295619494654308</v>
+        <v>2.326674500587544</v>
       </c>
       <c r="S25" s="29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68938050534569195</v>
+        <v>2.5083254994124564</v>
       </c>
       <c r="T25" s="29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74938050534569223</v>
+        <v>2.568325499412456</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -5832,220 +7081,235 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
+        <f ca="1">$H$29-$A$13</f>
+        <v>-42</v>
       </c>
       <c r="C28">
-        <f>$E$29-$E$28</f>
+        <f>$H$30-$H$29</f>
         <v>42</v>
       </c>
       <c r="D28">
-        <f ca="1">$A$22-$E$29</f>
-        <v>45</v>
-      </c>
-      <c r="E28" s="30">
-        <v>44869</v>
-      </c>
-      <c r="F28" s="28">
-        <f>P5+0.75</f>
-        <v>3.7650000000000001</v>
-      </c>
-      <c r="G28" s="28">
-        <f>(F28-$P$5)*100</f>
-        <v>75</v>
-      </c>
-      <c r="H28">
-        <f>G28/25</f>
-        <v>3</v>
+        <f>$H$31-$H$30</f>
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <f>$H$32-$H$31</f>
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <f ca="1">$A$23-$H$32</f>
+        <v>102</v>
+      </c>
+      <c r="H28" s="33">
+        <v>44959</v>
+      </c>
+      <c r="I28" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" ref="J28:J34" si="7">(I28-$P$5)*100</f>
+        <v>-36.500000000000021</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B29" s="29">
-        <f ca="1">S22</f>
-        <v>1.0299144348354508</v>
+        <f ca="1">S23</f>
+        <v>2.1009110723626856</v>
       </c>
       <c r="C29" s="29">
-        <f ca="1">B29+0.75</f>
-        <v>1.7799144348354508</v>
+        <f ca="1">B29+0.5</f>
+        <v>2.6009110723626856</v>
       </c>
       <c r="D29" s="29">
-        <f ca="1">C29+0.62</f>
-        <v>2.3999144348354506</v>
-      </c>
-      <c r="E29" s="30">
-        <v>44911</v>
-      </c>
-      <c r="F29" s="28">
-        <f>F28+0.75</f>
-        <v>4.5150000000000006</v>
-      </c>
-      <c r="G29" s="28">
-        <f t="shared" ref="G29:G36" si="7">(F29-$P$5)*100</f>
-        <v>150.00000000000006</v>
-      </c>
-      <c r="H29">
-        <f>(G29-G28)/25</f>
-        <v>3.0000000000000022</v>
+        <f ca="1">C29+0.25</f>
+        <v>2.8509110723626856</v>
+      </c>
+      <c r="E29" s="29">
+        <f ca="1">D29+0.25</f>
+        <v>3.1009110723626856</v>
+      </c>
+      <c r="F29" s="29">
+        <f ca="1">E29</f>
+        <v>3.1009110723626856</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="33">
+        <v>45008</v>
+      </c>
+      <c r="I29" s="28">
+        <f>I28+0.25</f>
+        <v>4.75</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="7"/>
+        <v>-11.500000000000021</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K35" si="8">(J29-J28)/25</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="32">
-        <f ca="1">SUMPRODUCT(B29:D29,B28:D28)/SUM(B28:D28)</f>
-        <v>1.9902237131859664</v>
-      </c>
-      <c r="E30" s="30">
-        <v>44960</v>
-      </c>
-      <c r="F30" s="28">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G30" s="28">
+        <f ca="1">SUMPRODUCT(B29:F29,B28:F28)/SUM(B28:F28)</f>
+        <v>3.1573626852659116</v>
+      </c>
+      <c r="H30" s="33">
+        <v>45050</v>
+      </c>
+      <c r="I30" s="28">
+        <f>I29+0.25</f>
+        <v>5</v>
+      </c>
+      <c r="J30" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ref="H30:H36" si="8">(G30-G29)/25</f>
-        <v>1.3399999999999954</v>
+        <v>13.499999999999979</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E31" s="30">
-        <v>45009</v>
-      </c>
-      <c r="F31" s="28">
-        <f t="shared" ref="F31:F37" si="9">F30+0</f>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G31" s="28">
+      <c r="H31" s="33">
+        <v>45092</v>
+      </c>
+      <c r="I31" s="28">
+        <f>I30+0</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H31">
+        <v>13.499999999999979</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <f ca="1">$E$28-$A$13</f>
-        <v>10</v>
+        <f ca="1">$H$29-$A$13</f>
+        <v>-42</v>
       </c>
       <c r="C32">
-        <f>$E$29-$E$28</f>
+        <f>$H$30-$H$29</f>
         <v>42</v>
       </c>
       <c r="D32">
-        <f ca="1">$A$22-$E$29</f>
-        <v>45</v>
-      </c>
-      <c r="E32" s="30">
-        <v>45051</v>
-      </c>
-      <c r="F32" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G32" s="28">
+        <f>$H$31-$H$30</f>
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <f>$H$32-$H$31</f>
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <f ca="1">$A$23-$H$32</f>
+        <v>102</v>
+      </c>
+      <c r="H32" s="33">
+        <v>45134</v>
+      </c>
+      <c r="I32" s="28">
+        <f>I31+0</f>
+        <v>5</v>
+      </c>
+      <c r="J32" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H32">
+        <v>13.499999999999979</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B33" s="29">
-        <f ca="1">T22</f>
-        <v>1.0899144348354508</v>
+        <f ca="1">B29+0.06</f>
+        <v>2.1609110723626856</v>
       </c>
       <c r="C33" s="29">
-        <f ca="1">B33+0.75</f>
-        <v>1.8399144348354508</v>
+        <f ca="1">C29+0.06</f>
+        <v>2.6609110723626856</v>
       </c>
       <c r="D33" s="29">
-        <f ca="1">C33+0.7</f>
-        <v>2.5399144348354508</v>
-      </c>
-      <c r="E33" s="30">
-        <v>45093</v>
-      </c>
-      <c r="F33" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G33" s="28">
+        <f ca="1">D29+0.06</f>
+        <v>2.9109110723626856</v>
+      </c>
+      <c r="E33" s="29">
+        <f ca="1">E29+0.06</f>
+        <v>3.1609110723626856</v>
+      </c>
+      <c r="F33" s="29">
+        <f ca="1">F29+0.06</f>
+        <v>3.1609110723626856</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="33">
+        <v>45190</v>
+      </c>
+      <c r="I33" s="28">
+        <f>I32+0</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H33">
+        <v>13.499999999999979</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="32">
-        <f ca="1">SUMPRODUCT(B33:D33,B32:D32)/SUM(B32:D32)</f>
-        <v>2.0873371152478217</v>
-      </c>
-      <c r="E34" s="30">
-        <v>45135</v>
-      </c>
-      <c r="F34" s="28">
-        <f t="shared" si="9"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G34" s="28">
+        <f ca="1">SUMPRODUCT(B33:F33,B32:F32)/SUM(B32:F32)</f>
+        <v>3.2173626852659121</v>
+      </c>
+      <c r="H34" s="33">
+        <v>45232</v>
+      </c>
+      <c r="I34" s="28">
+        <f>I33+0</f>
+        <v>5</v>
+      </c>
+      <c r="J34" s="28">
         <f t="shared" si="7"/>
-        <v>183.49999999999994</v>
-      </c>
-      <c r="H34">
+        <v>13.499999999999979</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="30">
-        <v>45191</v>
-      </c>
-      <c r="F35" s="28">
-        <v>4.8</v>
-      </c>
-      <c r="G35" s="28">
-        <f t="shared" si="7"/>
-        <v>178.49999999999997</v>
-      </c>
-      <c r="H35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="33">
+        <v>45274</v>
+      </c>
+      <c r="I35" s="28">
+        <f>I34+0</f>
+        <v>5</v>
+      </c>
+      <c r="J35" s="28">
+        <f>(I35-$R$5)*100</f>
+        <v>12.000000000000011</v>
+      </c>
+      <c r="K35" s="35">
         <f t="shared" si="8"/>
-        <v>-0.19999999999999887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="30">
-        <v>45233</v>
-      </c>
-      <c r="F36" s="28">
-        <v>4.7</v>
-      </c>
-      <c r="G36" s="28">
-        <f t="shared" si="7"/>
-        <v>168.5</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="8"/>
-        <v>-0.39999999999999886</v>
+        <v>-5.9999999999998721E-2</v>
       </c>
     </row>
   </sheetData>
